--- a/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>HCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43917</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43826</v>
+      </c>
+      <c r="F7" s="2">
         <v>43735</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43644</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43553</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43462</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43371</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43280</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43189</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43098</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43007</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42734</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>69100</v>
+      </c>
+      <c r="F8" s="3">
         <v>72700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>73500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>67200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>63700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>73700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>74500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>71100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>60100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>71500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>73600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>71400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>70100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45400</v>
+      </c>
+      <c r="F9" s="3">
         <v>48300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>47500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>44600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>40100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>49600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>49200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>48300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>38600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>47800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>49200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>48300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>45600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>23700</v>
+      </c>
+      <c r="F10" s="3">
         <v>24400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>26000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>22600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>23600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>24100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>25300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>22800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>21500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>23700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>24400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>23100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>24500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,75 +1002,87 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>5700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-4800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>65500</v>
+      </c>
+      <c r="F17" s="3">
         <v>63300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>63800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>58600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>60100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>65500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>60300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>62800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>53700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>63600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>67100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>63500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>60400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>9400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>9700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>8600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>8200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>14200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>8300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>6400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>7900</v>
-      </c>
-      <c r="M18" s="3">
-        <v>6500</v>
       </c>
       <c r="N18" s="3">
         <v>7900</v>
       </c>
       <c r="O18" s="3">
+        <v>6500</v>
+      </c>
+      <c r="P18" s="3">
+        <v>7900</v>
+      </c>
+      <c r="Q18" s="3">
         <v>9700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,37 +1289,43 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F21" s="3">
         <v>10500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>10800</v>
-      </c>
-      <c r="F21" s="3">
-        <v>9500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>4800</v>
       </c>
       <c r="H21" s="3">
         <v>9500</v>
       </c>
       <c r="I21" s="3">
-        <v>15500</v>
+        <v>4800</v>
       </c>
       <c r="J21" s="3">
         <v>9500</v>
       </c>
       <c r="K21" s="3">
-        <v>7600</v>
+        <v>15500</v>
       </c>
       <c r="L21" s="3">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M21" s="3">
         <v>7600</v>
@@ -1261,21 +1334,27 @@
         <v>9000</v>
       </c>
       <c r="O21" s="3">
+        <v>7600</v>
+      </c>
+      <c r="P21" s="3">
+        <v>9000</v>
+      </c>
+      <c r="Q21" s="3">
         <v>10600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1284,10 +1363,10 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1299,10 +1378,10 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F23" s="3">
         <v>9300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>9700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>8500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>8100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>14100</v>
       </c>
       <c r="J23" s="3">
         <v>8100</v>
       </c>
       <c r="K23" s="3">
+        <v>14100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M23" s="3">
         <v>6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>7700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>6300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>7900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>9600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>6900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>7000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>7000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>5700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>11700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>7300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>5300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>7900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>6200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>6900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>7000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>7000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>5700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>11700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>7300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>7900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>6200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1583,31 +1704,31 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-3500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>5800</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,52 +1889,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>6900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>7000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>7100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>11500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>9400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>7900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>6200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>6900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>7000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>7100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>11500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>9400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>7900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>6200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43917</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43826</v>
+      </c>
+      <c r="F38" s="2">
         <v>43735</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43644</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43553</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43462</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43371</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43280</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43189</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43098</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43007</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42734</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F41" s="3">
         <v>16400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>16700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>10700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>13800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>13200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>13300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>23700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>17500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>16200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>14400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>17100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>19700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2234,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>49800</v>
+      </c>
+      <c r="F43" s="3">
         <v>57900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>54500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>56000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>54800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>56900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>56800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>51900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>52300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>55600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>50400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>49900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>47400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,96 +2334,114 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F45" s="3">
         <v>3700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>78600</v>
+      </c>
+      <c r="F46" s="3">
         <v>78000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>75300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>70700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>73100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>73800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>73300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>79100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>75300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>74700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>68000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>69600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>68800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2484,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F48" s="3">
         <v>29400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>28700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>28900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>19800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>24300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>22800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>20700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>18900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>17900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>16500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>15800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>14800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,10 +2549,10 @@
         <v>83800</v>
       </c>
       <c r="E49" s="3">
-        <v>84200</v>
+        <v>84600</v>
       </c>
       <c r="F49" s="3">
-        <v>84600</v>
+        <v>83800</v>
       </c>
       <c r="G49" s="3">
         <v>84200</v>
@@ -2340,31 +2561,37 @@
         <v>84600</v>
       </c>
       <c r="I49" s="3">
+        <v>84200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>84600</v>
+      </c>
+      <c r="K49" s="3">
         <v>84700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>85700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>85100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>85000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>85300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>72600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>72400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>4400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>3300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>195100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>193700</v>
+      </c>
+      <c r="F54" s="3">
         <v>193900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>191400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>187700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>180800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>187100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>185900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>191000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>185200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>182200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>174900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>160800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>159300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>155100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,31 +2878,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>6800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>7400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>8400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>8600</v>
       </c>
       <c r="K57" s="3">
         <v>8400</v>
@@ -2652,19 +2913,25 @@
         <v>8600</v>
       </c>
       <c r="M57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="N57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="O57" s="3">
         <v>8200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>11700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>9100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,184 +2974,214 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>35200</v>
+      </c>
+      <c r="F59" s="3">
         <v>34200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>35500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>30200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>36800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>34100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>34100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>39800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>43000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>36000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>37100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>34200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>46700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>43700</v>
+      </c>
+      <c r="F60" s="3">
         <v>39400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>42300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>36600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>44200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>39200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>42500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>48400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>51400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>44600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>45200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>45800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>55800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>2500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>6500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>11500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>13500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>19000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>19000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>22000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>20000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>9000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>7000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F62" s="3">
         <v>13300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>13400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>13900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>6400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>8000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>8300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>8200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>7500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>17500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>17800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>9900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>10200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F66" s="3">
         <v>55200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>60200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>57900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>57200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>58700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>64300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>75700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>78000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>84100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>83100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>64700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>73000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-17100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-18300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-25400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-19900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-25000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-31200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-38500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-43300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-48600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-48700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-56600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-58800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>140800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>137600</v>
+      </c>
+      <c r="F76" s="3">
         <v>138700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>131200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>129700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>123600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>128400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>121600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>115400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>107300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>98100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>91800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>96000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>86300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43917</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43826</v>
+      </c>
+      <c r="F80" s="2">
         <v>43735</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43644</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43553</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43462</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43371</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43280</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43189</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43098</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43007</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42734</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>6900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>7000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>7100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>11500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>9400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>7900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>6200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,25 +4023,27 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E83" s="3">
         <v>1100</v>
       </c>
       <c r="F83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H83" s="3">
         <v>900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1200</v>
       </c>
       <c r="I83" s="3">
         <v>1200</v>
@@ -3658,22 +4055,28 @@
         <v>1200</v>
       </c>
       <c r="L83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N83" s="3">
         <v>1100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F89" s="3">
         <v>8500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>11300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>6800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>8100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>9500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>17200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>7600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>10000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>12100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-10300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4160,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-5400</v>
+        <v>-5800</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4172,19 +4639,19 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-4700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-4600</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-4000</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>-4000</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,60 +4809,72 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-7900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-4000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-8400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-5100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-7500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-5300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-8600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-6200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-5900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-5600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -4392,14 +4889,14 @@
         <v>100</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>6000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-10400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>5400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>HCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E7" s="2">
         <v>43917</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43826</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43644</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43553</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43462</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43371</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43280</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43189</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43098</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43007</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42734</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E8" s="3">
         <v>69500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>69100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>72700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>73500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>67200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>63700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>73700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>74500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>71100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>60100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>71500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>73600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>71400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>70100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E9" s="3">
         <v>47100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>48300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>47500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>44600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>49600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>38600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>47800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>49200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>48300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>45600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E10" s="3">
         <v>22400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>21500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,69 +1025,75 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>4400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-4800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1084,8 +1107,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E17" s="3">
         <v>61800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>65500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>63300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>63800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>58600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>60100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>65500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>60300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>62800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>53700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>63600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>67100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>63500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>60400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,58 +1329,64 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E21" s="3">
         <v>8700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1357,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1369,7 +1409,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1384,7 +1424,7 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E23" s="3">
         <v>7700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2400</v>
       </c>
       <c r="K24" s="3">
         <v>2400</v>
       </c>
       <c r="L24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>3300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>7000</v>
       </c>
       <c r="H26" s="3">
         <v>7000</v>
       </c>
       <c r="I26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J26" s="3">
         <v>3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>7000</v>
       </c>
       <c r="H27" s="3">
         <v>7000</v>
       </c>
       <c r="I27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J27" s="3">
         <v>3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1710,28 +1771,28 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-100</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-3500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>5800</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>5500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>5500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E38" s="2">
         <v>43917</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43826</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43644</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43553</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43462</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43371</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43280</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43189</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43098</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43007</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42734</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E41" s="3">
         <v>23300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E43" s="3">
         <v>53400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>57900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>54500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>56000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>56900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>56800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>51900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>52300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>55600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>50400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>49900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>47400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,108 +2436,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E46" s="3">
         <v>80000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>78600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>78000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>75300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>70700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>73100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>73800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>73300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>79100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>75300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>74700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>68000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>69600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>68800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E48" s="3">
         <v>29100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>28900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E49" s="3">
         <v>83800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>84600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>83800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>84200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>84600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>84200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>84600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>84700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>85700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>85100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>85000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>85300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>72600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>72400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>192500</v>
+      </c>
+      <c r="E54" s="3">
         <v>195100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>193700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>193900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>191400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>187700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>180800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>187100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>185900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>191000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>185200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>182200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>174900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>160800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>159300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>155100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E57" s="3">
         <v>8300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,108 +3114,117 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E59" s="3">
         <v>30500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>35500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>30200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>36800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>34100</v>
       </c>
       <c r="K59" s="3">
         <v>34100</v>
       </c>
       <c r="L59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="M59" s="3">
         <v>39800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>43000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>36000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>37100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>34200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>46700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E60" s="3">
         <v>38900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>43700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>42300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>44200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>39200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>48400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>51400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>44600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>45200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>45800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>55800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3092,96 +3235,102 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>2500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13500</v>
-      </c>
-      <c r="L61" s="3">
-        <v>19000</v>
       </c>
       <c r="M61" s="3">
         <v>19000</v>
       </c>
       <c r="N61" s="3">
+        <v>19000</v>
+      </c>
+      <c r="O61" s="3">
         <v>22000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E62" s="3">
         <v>15400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E66" s="3">
         <v>54300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>60200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>57900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>57200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>58700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>75700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>78000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>84100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>83100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>73000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-38500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-43300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-48600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-48700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-56600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-58800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>136600</v>
+      </c>
+      <c r="E76" s="3">
         <v>140800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>137600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>138700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>131200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>129700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>123600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>128400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>121600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>115400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>107300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>98100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>91800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>96000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>86300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E80" s="2">
         <v>43917</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43826</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43644</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43553</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43462</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43371</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43280</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43189</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43098</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43007</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42734</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>5500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,16 +4223,17 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1100</v>
       </c>
       <c r="F83" s="3">
         <v>1100</v>
@@ -4043,10 +4242,10 @@
         <v>1100</v>
       </c>
       <c r="H83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I83" s="3">
         <v>900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1200</v>
       </c>
       <c r="J83" s="3">
         <v>1200</v>
@@ -4061,22 +4260,25 @@
         <v>1200</v>
       </c>
       <c r="N83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="O83" s="3">
         <v>1100</v>
       </c>
       <c r="P83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>900</v>
       </c>
       <c r="R83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E89" s="3">
         <v>6500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-5800</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-5800</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-5400</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-5400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-4700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-4600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,91 +5058,97 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>HCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44099</v>
+      </c>
+      <c r="E7" s="2">
         <v>44008</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43917</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43826</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43644</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43553</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43462</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43371</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43280</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43189</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43098</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43007</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42734</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E8" s="3">
         <v>52800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>69500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>69100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>72700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>73500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>67200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>63700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>71100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>60100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>71500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>73600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>71400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>70100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E9" s="3">
         <v>40700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>47100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>45400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>48300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>47500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>44600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>40100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>49200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>48300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>38600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>47800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>49200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>48300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>45600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E10" s="3">
         <v>12100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>26000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>22600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>21500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>5000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>4400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-4800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1092,11 +1115,11 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1110,8 +1133,8 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E17" s="3">
         <v>57800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>61800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>65500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>63300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>58600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>60100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>65500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>60300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>62800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>53700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>63600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>63500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>60400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,61 +1366,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1400,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1412,7 +1452,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1427,7 +1467,7 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2400</v>
       </c>
       <c r="L24" s="3">
         <v>2400</v>
       </c>
       <c r="M24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>3300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>7000</v>
       </c>
       <c r="I26" s="3">
         <v>7000</v>
       </c>
       <c r="J26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K26" s="3">
         <v>3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>7000</v>
       </c>
       <c r="I27" s="3">
         <v>7000</v>
       </c>
       <c r="J27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K27" s="3">
         <v>3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,13 +1814,16 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1774,28 +1835,28 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-3500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>5800</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44099</v>
+      </c>
+      <c r="E38" s="2">
         <v>44008</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43917</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43826</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43644</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43553</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43462</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43371</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43280</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43189</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43098</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43007</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42734</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E41" s="3">
         <v>37400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E43" s="3">
         <v>37000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>53400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>49800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>57900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>56000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>54800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>56900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>56800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>51900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>52300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>55600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>50400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>49900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>47400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,114 +2535,123 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E46" s="3">
         <v>78100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>80000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>78600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>78000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>75300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>70700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>73100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>73800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>73300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>79100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>75300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>74700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>68000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>69600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>68800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E48" s="3">
         <v>28500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>28700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>28900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E49" s="3">
         <v>83900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>83800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>84600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>83800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>84200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>84600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>84200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>84600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>84700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>85700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>85100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>85000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>85300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>72600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>72400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>196100</v>
+      </c>
+      <c r="E54" s="3">
         <v>192500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>195100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>193700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>193900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>191400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>187700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>180800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>187100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>185900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>191000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>185200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>182200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>174900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>160800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>159300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>155100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,114 +3251,123 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E59" s="3">
         <v>37500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>30500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>35200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>35500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>30200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>36800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>34100</v>
       </c>
       <c r="L59" s="3">
         <v>34100</v>
       </c>
       <c r="M59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="N59" s="3">
         <v>39800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>43000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>36000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>37100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>34200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>46700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E60" s="3">
         <v>42300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>38900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>43700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>39400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>42300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>44200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>39200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>48400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>51400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>44600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>45200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>45800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>55800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3238,99 +3381,105 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>2500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13500</v>
-      </c>
-      <c r="M61" s="3">
-        <v>19000</v>
       </c>
       <c r="N61" s="3">
         <v>19000</v>
       </c>
       <c r="O61" s="3">
+        <v>19000</v>
+      </c>
+      <c r="P61" s="3">
         <v>22000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E62" s="3">
         <v>13600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E66" s="3">
         <v>55900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>60200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>57900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>57200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>58700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>75700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>78000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>84100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>83100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>73000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3783,52 +3957,55 @@
         <v>-15200</v>
       </c>
       <c r="E72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-25400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-43300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-48600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-48700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-56600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-58800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>138600</v>
+      </c>
+      <c r="E76" s="3">
         <v>136600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>140800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>137600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>138700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>131200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>129700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>123600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>128400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>121600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>115400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>107300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>98100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>91800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>96000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>86300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44099</v>
+      </c>
+      <c r="E80" s="2">
         <v>44008</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43917</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43826</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43644</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43553</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43462</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43371</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43280</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43189</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43098</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43007</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42734</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,19 +4422,20 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1100</v>
       </c>
       <c r="G83" s="3">
         <v>1100</v>
@@ -4245,10 +4444,10 @@
         <v>1100</v>
       </c>
       <c r="I83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J83" s="3">
         <v>900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1200</v>
       </c>
       <c r="K83" s="3">
         <v>1200</v>
@@ -4263,22 +4462,25 @@
         <v>1200</v>
       </c>
       <c r="O83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="P83" s="3">
         <v>1100</v>
       </c>
       <c r="Q83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R83" s="3">
         <v>1000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>900</v>
       </c>
       <c r="S83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E89" s="3">
         <v>14500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>17200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3100</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-5800</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-5800</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-5400</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-5400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-4700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-4600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-4000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5123,35 +5372,35 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E102" s="3">
         <v>14100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>HCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E7" s="2">
         <v>44099</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44008</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43917</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43826</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43644</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43553</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43462</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43371</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43280</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43189</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43098</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43007</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42734</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E8" s="3">
         <v>57900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>52800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>69500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>69100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>72700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>73500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>67200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>63700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>73700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>74500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>71100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>60100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>71500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>73600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>71400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>70100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E9" s="3">
         <v>39700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>47100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>45400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>48300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>47500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>44600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>49600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>49200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>48300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>47800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>49200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>48300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>45600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E10" s="3">
         <v>18200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>24400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>26000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>22600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>23100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,64 +1065,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>5000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>4400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-4800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1118,11 +1141,11 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1136,8 +1159,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E17" s="3">
         <v>53400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>57800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>61800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>65500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>58600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>60100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>65500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>60300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>62800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>53700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>63600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>63500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>60400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,64 +1403,70 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E21" s="3">
         <v>5700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>15500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1443,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1455,7 +1495,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1470,7 +1510,7 @@
         <v>200</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>4500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2400</v>
       </c>
       <c r="M24" s="3">
         <v>2400</v>
       </c>
       <c r="N24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>3300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>7000</v>
       </c>
       <c r="J26" s="3">
         <v>7000</v>
       </c>
       <c r="K26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L26" s="3">
         <v>3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>7000</v>
       </c>
       <c r="J27" s="3">
         <v>7000</v>
       </c>
       <c r="K27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L27" s="3">
         <v>3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,17 +1875,20 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-200</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
@@ -1838,28 +1899,28 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-3500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>5800</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,64 +2111,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
         <v>3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
         <v>3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E38" s="2">
         <v>44099</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44008</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43917</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43826</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43644</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43553</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43462</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43371</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43280</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43189</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43098</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43007</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42734</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E41" s="3">
         <v>43200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>26000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2516,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E43" s="3">
         <v>36200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>37000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>53400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>49800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>57900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>56000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>56900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>56800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>51900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>52300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>55600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>50400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>49900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>47400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,120 +2634,129 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>3400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E46" s="3">
         <v>82700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>78100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>80000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>78600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>78000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>75300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>70700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>73100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>73800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>73300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>79100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>75300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>74700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>68000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>69600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>68800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2811,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E48" s="3">
         <v>27300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>28700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>28900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E49" s="3">
         <v>84300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>83900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>83800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>84600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>83800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>84200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>84600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>84200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>84600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>84700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>85700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>85100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>85000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>85300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>72600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>72400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>192500</v>
+      </c>
+      <c r="E54" s="3">
         <v>196100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>192500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>195100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>193700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>193900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>191400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>187700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>180800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>187100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>185900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>191000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>185200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>182200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>174900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>160800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>159300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>155100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
         <v>5000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,120 +3388,129 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E59" s="3">
         <v>40100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>30500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>35200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>35500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>30200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>34100</v>
       </c>
       <c r="M59" s="3">
         <v>34100</v>
       </c>
       <c r="N59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="O59" s="3">
         <v>39800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>43000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>36000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>37100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>34200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>46700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E60" s="3">
         <v>45100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>42300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>38900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>43700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>39400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>42300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>44200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>39200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>42500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>48400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>51400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>44600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>45200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>45800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>55800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3384,102 +3527,108 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>2500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13500</v>
-      </c>
-      <c r="N61" s="3">
-        <v>19000</v>
       </c>
       <c r="O61" s="3">
         <v>19000</v>
       </c>
       <c r="P61" s="3">
+        <v>19000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>22000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E62" s="3">
         <v>12400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E66" s="3">
         <v>57500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>55200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>60200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>57900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>58700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>75700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>78000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>84100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>83100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>64700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>73000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-15200</v>
+        <v>-17400</v>
       </c>
       <c r="E72" s="3">
         <v>-15200</v>
       </c>
       <c r="F72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-8200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-25000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-38500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-43300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-48600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-48700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-56600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-58800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E76" s="3">
         <v>138600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>136600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>140800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>137600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>138700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>131200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>129700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>123600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>128400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>121600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>115400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>107300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>98100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>91800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>96000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>86300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E80" s="2">
         <v>44099</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44008</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43917</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43826</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43644</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43553</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43462</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43371</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43280</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43189</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43098</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43007</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42734</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
         <v>3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,13 +4631,13 @@
         <v>1200</v>
       </c>
       <c r="E83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1100</v>
       </c>
       <c r="H83" s="3">
         <v>1100</v>
@@ -4447,10 +4646,10 @@
         <v>1100</v>
       </c>
       <c r="J83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K83" s="3">
         <v>900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1200</v>
       </c>
       <c r="L83" s="3">
         <v>1200</v>
@@ -4465,22 +4664,25 @@
         <v>1200</v>
       </c>
       <c r="P83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="Q83" s="3">
         <v>1100</v>
       </c>
       <c r="R83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S83" s="3">
         <v>1000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>900</v>
       </c>
       <c r="T83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E89" s="3">
         <v>10100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5316,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3100</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-5800</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-5800</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-5400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-5400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-4700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-4000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5375,35 +5624,35 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E102" s="3">
         <v>5800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>HCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E7" s="2">
         <v>44197</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44099</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43917</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43826</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43644</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43553</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43462</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43371</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43280</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43189</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43098</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43007</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42734</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E8" s="3">
         <v>59300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>57900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>52800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>69500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>69100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>72700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>73500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>67200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>63700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>73700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>74500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>71100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>60100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>71500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>73600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>71400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>70100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E9" s="3">
         <v>38900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>39700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>47100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>48300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>47500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>49600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>49200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>48300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>38600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>47800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>49200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>48300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>45600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E10" s="3">
         <v>20400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>18200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>22400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>26000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>23100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,67 +1084,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>5500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>5000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>4400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-4800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1144,11 +1166,11 @@
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3">
         <v>200</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1162,8 +1184,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E17" s="3">
         <v>57800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>53400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>57800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>61800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>65500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>58600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>60100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>65500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>60300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>62800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>53700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>63600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>67100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>63500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>60400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E18" s="3">
         <v>1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,67 +1439,73 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1486,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1498,7 +1537,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1513,7 +1552,7 @@
         <v>200</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1524,126 +1563,135 @@
       <c r="U22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2400</v>
       </c>
       <c r="N24" s="3">
         <v>2400</v>
       </c>
       <c r="O24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1600</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>3300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>7000</v>
       </c>
       <c r="K26" s="3">
         <v>7000</v>
       </c>
       <c r="L26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M26" s="3">
         <v>3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>7000</v>
       </c>
       <c r="K27" s="3">
         <v>7000</v>
       </c>
       <c r="L27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M27" s="3">
         <v>3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1887,11 +1947,11 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
@@ -1902,28 +1962,28 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-3500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>5800</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2114,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E38" s="2">
         <v>44197</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44099</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43917</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43826</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43644</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43553</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43462</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43371</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43280</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43189</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43098</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43007</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42734</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E41" s="3">
         <v>49500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>43200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>26000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>19700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E43" s="3">
         <v>32800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>36200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>37000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>53400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>49800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>57900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>54500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>56000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>56900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>56800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>51900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>52300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>55600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>50400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>49900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>47400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,126 +2732,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E46" s="3">
         <v>84800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>82700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>78100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>80000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>78600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>78000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>75300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>70700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>73100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>73800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>73300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>79100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>75300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>74700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>68000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>69600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>68800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E48" s="3">
         <v>20700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>28700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E49" s="3">
         <v>85300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>84300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>83900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>83800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>84600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>83800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>84200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>84600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>84200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>84600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>84700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>85700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>85100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>85000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>85300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>72600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>72400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>199400</v>
+      </c>
+      <c r="E54" s="3">
         <v>192500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>196100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>192500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>195100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>193700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>193900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>191400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>187700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>180800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>187100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>185900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>191000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>185200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>182200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>174900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>160800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>159300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>155100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,126 +3524,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E59" s="3">
         <v>36500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>37500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>35200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>35500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>34100</v>
       </c>
       <c r="N59" s="3">
         <v>34100</v>
       </c>
       <c r="O59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="P59" s="3">
         <v>39800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>43000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>36000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>37100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>34200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>46700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E60" s="3">
         <v>42600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>45100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>42300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>38900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>43700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>39400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>42300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>44200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>39200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>42500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>48400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>51400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>44600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>45200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>45800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>55800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3530,105 +3672,111 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>2500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13500</v>
-      </c>
-      <c r="O61" s="3">
-        <v>19000</v>
       </c>
       <c r="P61" s="3">
         <v>19000</v>
       </c>
       <c r="Q61" s="3">
+        <v>19000</v>
+      </c>
+      <c r="R61" s="3">
         <v>22000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E62" s="3">
         <v>9100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E66" s="3">
         <v>51700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>57500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>56100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>55200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>60200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>57200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>58700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>75700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>78000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>84100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>83100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>64700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>73000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17400</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-15200</v>
       </c>
       <c r="F72" s="3">
         <v>-15200</v>
       </c>
       <c r="G72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-8200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-25000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-31200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-43300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-48600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-48700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-56600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-58800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>143200</v>
+      </c>
+      <c r="E76" s="3">
         <v>140900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>138600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>136600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>140800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>137600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>138700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>131200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>129700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>123600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>128400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>121600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>115400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>107300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>98100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>91800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>96000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>86300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E80" s="2">
         <v>44197</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44099</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43917</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43826</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43644</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43553</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43462</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43371</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43280</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43189</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43098</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43007</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42734</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,25 +4819,26 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E83" s="3">
         <v>1200</v>
       </c>
       <c r="F83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1100</v>
       </c>
       <c r="I83" s="3">
         <v>1100</v>
@@ -4649,10 +4847,10 @@
         <v>1100</v>
       </c>
       <c r="K83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L83" s="3">
         <v>900</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1200</v>
       </c>
       <c r="M83" s="3">
         <v>1200</v>
@@ -4667,22 +4865,25 @@
         <v>1200</v>
       </c>
       <c r="Q83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="R83" s="3">
         <v>1100</v>
       </c>
       <c r="S83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T83" s="3">
         <v>1000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>900</v>
       </c>
       <c r="U83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E89" s="3">
         <v>12900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>17200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>12100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-6100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3100</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-5800</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-5800</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-5400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-5400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-4700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-4600</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-4000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5627,35 +5875,35 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -5671,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>HCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E7" s="2">
         <v>44288</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44197</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44099</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43917</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43826</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43644</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43553</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43462</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43371</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43280</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43189</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43098</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43007</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42734</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E8" s="3">
         <v>63500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>59300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>57900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>52800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>69500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>69100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>72700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>67200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>63700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>73700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>74500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>71100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>60100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>71500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>73600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>71400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>70100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E9" s="3">
         <v>41200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>38900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>39700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>40700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>47100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>45400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>48300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>44600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>49600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>49200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>48300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>38600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>47800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>49200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>48300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>45600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E10" s="3">
         <v>22300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>22800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>23700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>23100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>5500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>5000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>4400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-1100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-4800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1169,11 +1192,11 @@
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
         <v>200</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1187,8 +1210,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E17" s="3">
         <v>54600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>57800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>53400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>57800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>61800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>65500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>58600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>60100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>65500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>60300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>62800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>53700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>63600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>67100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>63500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>60400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E18" s="3">
         <v>8900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,70 +1476,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E21" s="3">
         <v>10000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>15500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>10600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1528,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1540,7 +1580,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
@@ -1555,7 +1595,7 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E23" s="3">
         <v>8800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2400</v>
       </c>
       <c r="O24" s="3">
         <v>2400</v>
       </c>
       <c r="P24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1600</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>3300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E26" s="3">
         <v>6400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>7000</v>
       </c>
       <c r="L26" s="3">
         <v>7000</v>
       </c>
       <c r="M26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N26" s="3">
         <v>3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E27" s="3">
         <v>6400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>7000</v>
       </c>
       <c r="L27" s="3">
         <v>7000</v>
       </c>
       <c r="M27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N27" s="3">
         <v>3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1950,11 +2011,11 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-200</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
@@ -1965,28 +2026,28 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-3500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>5800</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E33" s="3">
         <v>6400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E35" s="3">
         <v>6400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E38" s="2">
         <v>44288</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44197</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44099</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43917</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43826</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43644</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43553</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43462</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43371</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43280</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43189</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43098</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43007</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42734</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E41" s="3">
         <v>51100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>26000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>19700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E43" s="3">
         <v>38500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>36200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>53400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>49800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>57900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>56000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>56900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>56800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>51900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>52300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>55600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>50400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>49900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>47400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,132 +2831,141 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E46" s="3">
         <v>92400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>84800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>82700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>78100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>80000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>78600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>78000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>75300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>70700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>73100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>73800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>73300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>79100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>75300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>74700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>68000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>69600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>68800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,70 +3026,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E48" s="3">
         <v>20100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2992,61 +3103,64 @@
         <v>85400</v>
       </c>
       <c r="E49" s="3">
+        <v>85400</v>
+      </c>
+      <c r="F49" s="3">
         <v>85300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>84300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>83900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>83800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>84600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>83800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>84200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>84600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>84200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>84600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>84700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>85700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>85100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>85000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>85300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>72600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>72400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>208800</v>
+      </c>
+      <c r="E54" s="3">
         <v>199400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>192500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>196100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>192500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>195100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>193700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>193900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>191400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>187700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>180800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>187100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>185900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>191000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>185200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>182200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>174900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>160800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>159300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>155100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,132 +3661,141 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E59" s="3">
         <v>41200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>36500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>40100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>37500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>30500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>35200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>35500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>30200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>36800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>34100</v>
       </c>
       <c r="O59" s="3">
         <v>34100</v>
       </c>
       <c r="P59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>39800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>43000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>36000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>37100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>34200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>46700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E60" s="3">
         <v>46200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>42600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>45100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>42300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>43700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>39400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>44200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>39200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>42500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>48400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>51400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>44600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>45200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>45800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>55800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3675,108 +3818,114 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>2500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13500</v>
-      </c>
-      <c r="P61" s="3">
-        <v>19000</v>
       </c>
       <c r="Q61" s="3">
         <v>19000</v>
       </c>
       <c r="R61" s="3">
+        <v>19000</v>
+      </c>
+      <c r="S61" s="3">
         <v>22000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E62" s="3">
         <v>10000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E66" s="3">
         <v>56200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>51700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>56100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>57900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>57200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>58700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>75700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>78000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>84100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>83100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>64700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>73000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-15200</v>
       </c>
       <c r="G72" s="3">
         <v>-15200</v>
       </c>
       <c r="H72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="I72" s="3">
         <v>-8200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-25400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-25000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-31200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-38500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-43300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-48600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-48700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-56600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-58800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E76" s="3">
         <v>143200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>140900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>138600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>136600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>140800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>137600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>138700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>131200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>129700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>123600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>128400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>121600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>115400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>107300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>98100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>91800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>96000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>86300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E80" s="2">
         <v>44288</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44197</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44099</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43917</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43826</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43644</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43553</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43462</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43371</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43280</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43189</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43098</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43007</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42734</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E81" s="3">
         <v>6400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,19 +5028,19 @@
         <v>1100</v>
       </c>
       <c r="E83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F83" s="3">
         <v>1200</v>
       </c>
       <c r="G83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1100</v>
       </c>
       <c r="J83" s="3">
         <v>1100</v>
@@ -4850,10 +5049,10 @@
         <v>1100</v>
       </c>
       <c r="L83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M83" s="3">
         <v>900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1200</v>
       </c>
       <c r="N83" s="3">
         <v>1200</v>
@@ -4868,22 +5067,25 @@
         <v>1200</v>
       </c>
       <c r="R83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="S83" s="3">
         <v>1100</v>
       </c>
       <c r="T83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U83" s="3">
         <v>1000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>900</v>
       </c>
       <c r="V83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E89" s="3">
         <v>5900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>17200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>12100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3300</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-6100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3100</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-5800</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-5800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-5400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-5400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-4600</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-4000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5878,35 +6127,35 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>HCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E7" s="2">
         <v>44379</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44288</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44197</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44099</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43917</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43826</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43644</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43553</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43462</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43371</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43280</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43189</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43098</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43007</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42734</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E8" s="3">
         <v>73200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>63500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>59300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>57900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>52800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>69500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>69100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>72700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>73500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>67200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>63700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>73700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>74500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>71100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>60100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>71500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>73600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>71400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>70100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E9" s="3">
         <v>43400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>38900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>39700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>40700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>47100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>45400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>44600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>49600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>49200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>48300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>38600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>47800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>49200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>48300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>45600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E10" s="3">
         <v>29800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>22400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>25300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>22800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>23700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>23100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>24500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,62 +1138,65 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>5500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>5000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>4400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>100</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1195,11 +1218,11 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1213,8 +1236,8 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E17" s="3">
         <v>59000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>54600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>57800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>53400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>57800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>61800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>65500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>58600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>60100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>60300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>62800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>53700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>63600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>67100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>63500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>60400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E18" s="3">
         <v>14200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>9700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,73 +1513,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E21" s="3">
         <v>15300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>15500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>10600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1571,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1583,7 +1623,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
@@ -1598,7 +1638,7 @@
         <v>200</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E23" s="3">
         <v>14200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E24" s="3">
         <v>3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>2400</v>
       </c>
       <c r="P24" s="3">
         <v>2400</v>
       </c>
       <c r="Q24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1600</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>3300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E26" s="3">
         <v>10500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>7000</v>
       </c>
       <c r="M26" s="3">
         <v>7000</v>
       </c>
       <c r="N26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O26" s="3">
         <v>3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E27" s="3">
         <v>10500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>7000</v>
       </c>
       <c r="M27" s="3">
         <v>7000</v>
       </c>
       <c r="N27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O27" s="3">
         <v>3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2014,11 +2075,11 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-200</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
@@ -2029,28 +2090,28 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-3500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>5800</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E33" s="3">
         <v>10500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E35" s="3">
         <v>10500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E38" s="2">
         <v>44379</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44288</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44197</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44099</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43917</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43826</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43644</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43553</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43462</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43371</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43280</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43189</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43098</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43007</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42734</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E41" s="3">
         <v>52500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>51100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>49500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>43200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>26000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>19700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E43" s="3">
         <v>47200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>38500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>36200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>37000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>53400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>49800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>57900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>56000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>54800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>56900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>56800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>51900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>52300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>55600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>50400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>49900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>47400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,138 +2930,147 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E46" s="3">
         <v>102300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>92400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>84800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>82700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>78100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>80000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>78600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>78000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>75300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>70700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>73100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>73800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>73300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>79100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>75300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>74700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>68000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>69600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>68800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3134,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E48" s="3">
         <v>19900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>28500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>14800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>85400</v>
+        <v>85100</v>
       </c>
       <c r="E49" s="3">
         <v>85400</v>
       </c>
       <c r="F49" s="3">
+        <v>85400</v>
+      </c>
+      <c r="G49" s="3">
         <v>85300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>84300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>83900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>83800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>84600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>83800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>84200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>84600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>84200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>84600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>84700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>85700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>85100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>85000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>85300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>72600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>72400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>211400</v>
+      </c>
+      <c r="E54" s="3">
         <v>208800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>199400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>192500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>196100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>192500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>195100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>193700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>193900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>191400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>187700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>180800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>187100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>185900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>191000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>185200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>182200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>174900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>160800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>159300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>155100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,138 +3798,147 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E59" s="3">
         <v>50900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>41200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>36500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>40100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>37500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>30500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>35200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>36800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>34100</v>
       </c>
       <c r="P59" s="3">
         <v>34100</v>
       </c>
       <c r="Q59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="R59" s="3">
         <v>39800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>43000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>36000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>37100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>34200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>46700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E60" s="3">
         <v>55600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>46200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>42600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>45100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>42300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>43700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>39400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>36600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>44200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>39200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>42500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>48400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>51400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>44600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>45200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>45800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>55800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3821,111 +3964,117 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>2500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13500</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>19000</v>
       </c>
       <c r="R61" s="3">
         <v>19000</v>
       </c>
       <c r="S61" s="3">
+        <v>19000</v>
+      </c>
+      <c r="T61" s="3">
         <v>22000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E62" s="3">
         <v>8800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E66" s="3">
         <v>64400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>51700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>55900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>56100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>60200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>57900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>57200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>58700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>75700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>78000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>84100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>83100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>64700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>73000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-15200</v>
       </c>
       <c r="H72" s="3">
         <v>-15200</v>
       </c>
       <c r="I72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-8200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-25400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-31200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-43300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-48600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-48700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-56600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-58800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>148500</v>
+      </c>
+      <c r="E76" s="3">
         <v>144400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>143200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>140900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>138600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>136600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>140800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>137600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>138700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>131200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>129700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>123600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>128400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>121600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>115400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>107300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>98100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>91800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>96000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>86300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E80" s="2">
         <v>44379</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44288</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44197</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44099</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43917</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43826</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43644</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43553</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43462</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43371</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43280</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43189</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43098</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43007</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42734</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E81" s="3">
         <v>10500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5031,19 +5230,19 @@
         <v>1100</v>
       </c>
       <c r="F83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G83" s="3">
         <v>1200</v>
       </c>
       <c r="H83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1100</v>
       </c>
       <c r="K83" s="3">
         <v>1100</v>
@@ -5052,10 +5251,10 @@
         <v>1100</v>
       </c>
       <c r="M83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N83" s="3">
         <v>900</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1200</v>
       </c>
       <c r="O83" s="3">
         <v>1200</v>
@@ -5070,22 +5269,25 @@
         <v>1200</v>
       </c>
       <c r="S83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T83" s="3">
         <v>1100</v>
       </c>
       <c r="U83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V83" s="3">
         <v>1000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>900</v>
       </c>
       <c r="W83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E89" s="3">
         <v>13800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>12100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3300</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-6100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3100</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-5800</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-5800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-5400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-5400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-4700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-4600</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-4000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6130,35 +6379,35 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>HCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44470</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44379</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44288</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44197</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44099</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43917</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43826</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43644</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43553</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43462</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43371</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43280</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43189</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43098</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43007</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42734</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E8" s="3">
         <v>71900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>73200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>63500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>59300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>57900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>52800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>69500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>69100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>72700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>73500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>67200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>63700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>73700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>74500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>71100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>60100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>71500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>73600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>71400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>70100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E9" s="3">
         <v>45700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>41200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>38900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>47100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>45400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>47500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>44600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>49600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>49200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>48300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>38600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>47800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>49200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>48300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>45600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E10" s="3">
         <v>26200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>29800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>22400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>25300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>22800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>21500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>23700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>23100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>24500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1144,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1141,62 +1161,65 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>5500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>5000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>4400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-1100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-4800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>100</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1221,11 +1244,11 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>200</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1239,8 +1262,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E17" s="3">
         <v>60500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>59000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>54600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>57800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>53400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>57800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>61800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>65500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>58600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>60100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>65500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>60300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>62800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>53700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>63600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>67100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>63500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>60400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E18" s="3">
         <v>11400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,76 +1550,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E21" s="3">
         <v>12500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>15500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>10600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1614,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1626,7 +1666,7 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
@@ -1641,7 +1681,7 @@
         <v>200</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
@@ -1652,144 +1692,153 @@
       <c r="X22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E23" s="3">
         <v>11400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>9600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E24" s="3">
         <v>3200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2400</v>
       </c>
       <c r="Q24" s="3">
         <v>2400</v>
       </c>
       <c r="R24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1600</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>3300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E26" s="3">
         <v>8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>7000</v>
       </c>
       <c r="N26" s="3">
         <v>7000</v>
       </c>
       <c r="O26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P26" s="3">
         <v>3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E27" s="3">
         <v>8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6900</v>
-      </c>
-      <c r="M27" s="3">
-        <v>7000</v>
       </c>
       <c r="N27" s="3">
         <v>7000</v>
       </c>
       <c r="O27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P27" s="3">
         <v>3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2078,11 +2139,11 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
@@ -2093,28 +2154,28 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-3500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>5800</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,76 +2402,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E33" s="3">
         <v>8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E35" s="3">
         <v>8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44470</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44379</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44288</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44197</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44099</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43917</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43826</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43644</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43553</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43462</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43371</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43280</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43189</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43098</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43007</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42734</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E41" s="3">
         <v>52900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>51100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>43200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>17100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>19700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,76 +2887,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E43" s="3">
         <v>49600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>47200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>38500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>32800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>36200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>37000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>53400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>49800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>57900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>56000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>54800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>56900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>56800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>51900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>52300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>55600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>50400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>49900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>47400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,144 +3029,153 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E46" s="3">
         <v>105700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>102300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>92400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>84800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>82700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>78100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>80000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>78600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>78000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>75300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>70700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>73100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>73800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>73300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>79100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>75300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>74700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>68000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>69600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>68800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,67 +3254,70 @@
         <v>19700</v>
       </c>
       <c r="E48" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F48" s="3">
         <v>19900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>28500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>14800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3214,67 +3325,70 @@
         <v>85100</v>
       </c>
       <c r="E49" s="3">
-        <v>85400</v>
+        <v>85100</v>
       </c>
       <c r="F49" s="3">
         <v>85400</v>
       </c>
       <c r="G49" s="3">
+        <v>85400</v>
+      </c>
+      <c r="H49" s="3">
         <v>85300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>84300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>83900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>83800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>84600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>83800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>84200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>84600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>84200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>84600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>84700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>85700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>85100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>85000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>85300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>72600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>72400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>207500</v>
+      </c>
+      <c r="E54" s="3">
         <v>211400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>208800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>199400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>192500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>196100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>192500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>195100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>193700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>193900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>191400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>187700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>180800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>187100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>185900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>191000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>185200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>182200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>174900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>160800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>159300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>155100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3795,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E57" s="3">
         <v>5000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,76 +3935,82 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E59" s="3">
         <v>49900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>50900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>41200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>36500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>40100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>37500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>30500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>35200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>30200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>36800</v>
-      </c>
-      <c r="P59" s="3">
-        <v>34100</v>
       </c>
       <c r="Q59" s="3">
         <v>34100</v>
       </c>
       <c r="R59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="S59" s="3">
         <v>39800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>43000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>36000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>37100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>34200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>46700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,67 +4018,70 @@
         <v>54900</v>
       </c>
       <c r="E60" s="3">
+        <v>54900</v>
+      </c>
+      <c r="F60" s="3">
         <v>55600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>46200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>42600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>45100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>42300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>39400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>42300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>36600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>44200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>39200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>42500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>48400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>51400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>44600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>45200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>45800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>55800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3967,114 +4110,120 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>2500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13500</v>
-      </c>
-      <c r="R61" s="3">
-        <v>19000</v>
       </c>
       <c r="S61" s="3">
         <v>19000</v>
       </c>
       <c r="T61" s="3">
+        <v>19000</v>
+      </c>
+      <c r="U61" s="3">
         <v>22000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E62" s="3">
         <v>7900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>17800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E66" s="3">
         <v>62900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>64400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>51700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>57500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>55900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>54300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>60200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>57900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>57200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>58700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>75700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>78000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>84100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>83100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>64700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>73000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-15200</v>
       </c>
       <c r="I72" s="3">
         <v>-15200</v>
       </c>
       <c r="J72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-8200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-25400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-25000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-31200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-38500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-43300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-48600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-48700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-56600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-58800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>143900</v>
+      </c>
+      <c r="E76" s="3">
         <v>148500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>144400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>143200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>140900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>138600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>136600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>140800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>137600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>138700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>131200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>129700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>123600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>128400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>121600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>115400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>107300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>98100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>91800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>96000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>86300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44470</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44379</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44288</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44197</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44099</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43917</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43826</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43644</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43553</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43462</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43371</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43280</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43189</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43098</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43007</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42734</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E81" s="3">
         <v>8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,13 +5416,14 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E83" s="3">
         <v>1100</v>
@@ -5233,19 +5432,19 @@
         <v>1100</v>
       </c>
       <c r="G83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H83" s="3">
         <v>1200</v>
       </c>
       <c r="I83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1100</v>
       </c>
       <c r="L83" s="3">
         <v>1100</v>
@@ -5254,10 +5453,10 @@
         <v>1100</v>
       </c>
       <c r="N83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O83" s="3">
         <v>900</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1200</v>
       </c>
       <c r="P83" s="3">
         <v>1200</v>
@@ -5272,22 +5471,25 @@
         <v>1200</v>
       </c>
       <c r="T83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="U83" s="3">
         <v>1100</v>
       </c>
       <c r="V83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W83" s="3">
         <v>1000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>900</v>
       </c>
       <c r="X83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E89" s="3">
         <v>6800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>17200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>10000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>12100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6251,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3300</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-6100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3100</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-5800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-5800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-5400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-4700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-4600</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-4000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6382,35 +6631,35 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>HCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44470</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44379</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44288</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44197</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44099</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43917</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43826</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43644</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43553</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43462</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43371</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43280</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43189</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43098</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43007</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42734</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E8" s="3">
         <v>70200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>71900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>73200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>63500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>59300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>57900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>52800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>69500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>69100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>72700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>73500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>67200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>63700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>73700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>74500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>71100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>60100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>71500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>73600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>71400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>70100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E9" s="3">
         <v>42700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>43400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>41200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>38900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>39700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>40700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>45400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>48300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>47500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>44600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>40100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>49600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>49200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>48300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>38600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>47800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>49200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>48300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>45600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E10" s="3">
         <v>27500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>22300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>25300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>22800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>21500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>23700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>24400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>23100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>24500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,16 +1164,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1164,62 +1184,65 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>5500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>5000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>4400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-1100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-4800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>100</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1247,11 +1270,11 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
         <v>200</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1265,8 +1288,8 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E17" s="3">
         <v>58200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>60500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>59000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>54600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>57800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>53400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>57800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>65500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>63800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>58600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>60100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>65500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>60300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>62800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>53700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>63600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>67100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>63500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>60400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E18" s="3">
         <v>12000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1553,79 +1587,85 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E21" s="3">
         <v>13000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>15500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>10600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1657,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1669,7 +1709,7 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
@@ -1684,7 +1724,7 @@
         <v>200</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
@@ -1695,150 +1735,159 @@
       <c r="Y22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E23" s="3">
         <v>12000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>9600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>2400</v>
       </c>
       <c r="R24" s="3">
         <v>2400</v>
       </c>
       <c r="S24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1600</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>3300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E26" s="3">
         <v>16500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>7000</v>
       </c>
       <c r="O26" s="3">
         <v>7000</v>
       </c>
       <c r="P26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q26" s="3">
         <v>3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E27" s="3">
         <v>16500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6900</v>
-      </c>
-      <c r="N27" s="3">
-        <v>7000</v>
       </c>
       <c r="O27" s="3">
         <v>7000</v>
       </c>
       <c r="P27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q27" s="3">
         <v>3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2142,11 +2203,11 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -2157,28 +2218,28 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>5800</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2405,79 +2475,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E33" s="3">
         <v>16500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E35" s="3">
         <v>16500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44470</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44379</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44288</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44197</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44099</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43917</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43826</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43644</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43553</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43462</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43371</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43280</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43189</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43098</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43007</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42734</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E41" s="3">
         <v>45800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>51100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>43200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>17100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>19700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,79 +2980,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E43" s="3">
         <v>50600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>47200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>38500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>36200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>37000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>53400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>49800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>57900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>54500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>56000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>54800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>56900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>56800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>51900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>52300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>55600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>50400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>49900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>47400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,150 +3128,159 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E45" s="3">
         <v>5800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>103600</v>
+      </c>
+      <c r="E46" s="3">
         <v>102200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>105700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>102300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>92400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>84800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>82700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>78100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>80000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>78600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>78000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>75300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>70700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>73100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>73800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>73300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>79100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>75300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>74700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>68000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>69600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>68800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,150 +3350,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19700</v>
+        <v>19600</v>
       </c>
       <c r="E48" s="3">
         <v>19700</v>
       </c>
       <c r="F48" s="3">
+        <v>19700</v>
+      </c>
+      <c r="G48" s="3">
         <v>19900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>28500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>24300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>14800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>85100</v>
+        <v>84600</v>
       </c>
       <c r="E49" s="3">
         <v>85100</v>
       </c>
       <c r="F49" s="3">
-        <v>85400</v>
+        <v>85100</v>
       </c>
       <c r="G49" s="3">
         <v>85400</v>
       </c>
       <c r="H49" s="3">
+        <v>85400</v>
+      </c>
+      <c r="I49" s="3">
         <v>85300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>84300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>83900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>83800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>84600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>83800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>84200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>84600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>84200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>84600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>84700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>85700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>85100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>85000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>85300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>72600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>72400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>208400</v>
+      </c>
+      <c r="E54" s="3">
         <v>207500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>211400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>208800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>199400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>192500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>196100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>192500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>195100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>193700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>193900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>191400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>187700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>180800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>187100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>185900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>191000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>185200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>182200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>174900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>160800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>159300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>155100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +3926,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>8200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,150 +4072,159 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E59" s="3">
         <v>47200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>50900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>41200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>36500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>40100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>37500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>30200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>36800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>34100</v>
       </c>
       <c r="R59" s="3">
         <v>34100</v>
       </c>
       <c r="S59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="T59" s="3">
         <v>39800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>43000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>36000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>37100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>34200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>46700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54900</v>
+        <v>48000</v>
       </c>
       <c r="E60" s="3">
         <v>54900</v>
       </c>
       <c r="F60" s="3">
+        <v>54900</v>
+      </c>
+      <c r="G60" s="3">
         <v>55600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>46200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>42600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>45100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>42300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>43700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>39400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>42300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>36600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>44200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>39200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>42500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>48400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>51400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>44600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>45200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>45800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>55800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4113,117 +4256,123 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>2500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13500</v>
-      </c>
-      <c r="S61" s="3">
-        <v>19000</v>
       </c>
       <c r="T61" s="3">
         <v>19000</v>
       </c>
       <c r="U61" s="3">
+        <v>19000</v>
+      </c>
+      <c r="V61" s="3">
         <v>22000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E62" s="3">
         <v>8800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>17500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>17800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E66" s="3">
         <v>63700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>64400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>51700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>57500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>54300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>55200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>60200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>57900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>57200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>58700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>64300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>75700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>78000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>84100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>83100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>64700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>73000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E72" s="3">
         <v>11300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-15200</v>
       </c>
       <c r="J72" s="3">
         <v>-15200</v>
       </c>
       <c r="K72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="L72" s="3">
         <v>-8200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-25400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-19900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-25000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-31200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-38500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-43300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-48600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-48700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-56600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-58800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>150300</v>
+      </c>
+      <c r="E76" s="3">
         <v>143900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>148500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>144400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>143200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>140900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>138600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>136600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>140800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>137600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>138700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>131200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>129700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>123600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>128400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>121600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>115400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>107300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>98100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>91800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>96000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>86300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44470</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44379</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44288</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44197</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44099</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43917</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43826</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43644</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43553</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43462</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43371</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43280</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43189</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43098</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43007</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42734</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E81" s="3">
         <v>16500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,16 +5615,17 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1100</v>
       </c>
       <c r="F83" s="3">
         <v>1100</v>
@@ -5435,19 +5634,19 @@
         <v>1100</v>
       </c>
       <c r="H83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I83" s="3">
         <v>1200</v>
       </c>
       <c r="J83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1100</v>
       </c>
       <c r="M83" s="3">
         <v>1100</v>
@@ -5456,10 +5655,10 @@
         <v>1100</v>
       </c>
       <c r="O83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P83" s="3">
         <v>900</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1200</v>
       </c>
       <c r="Q83" s="3">
         <v>1200</v>
@@ -5474,22 +5673,25 @@
         <v>1200</v>
       </c>
       <c r="U83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="V83" s="3">
         <v>1100</v>
       </c>
       <c r="W83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X83" s="3">
         <v>1000</v>
-      </c>
-      <c r="X83" s="3">
-        <v>900</v>
       </c>
       <c r="Y83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E89" s="3">
         <v>19900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>17200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>10000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>12100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5950,70 +6171,73 @@
         <v>-1000</v>
       </c>
       <c r="E91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6163,70 +6393,73 @@
         <v>-1000</v>
       </c>
       <c r="E94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-10300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,79 +6485,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-6400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3300</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-6100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3100</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-5800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-5800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-5400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-5400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-4700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-4600</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-4000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-26000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6634,35 +6883,35 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>5400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>HCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E7" s="2">
         <v>44652</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44470</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44379</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44288</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44197</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44099</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43917</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43826</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43644</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43553</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43462</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43371</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43280</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43189</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43098</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43007</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42734</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E8" s="3">
         <v>75700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>70200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>71900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>73200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>63500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>59300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>57900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>52800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>69500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>69100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>72700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>73500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>67200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>63700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>73700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>74500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>71100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>60100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>71500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>73600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>71400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>70100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E9" s="3">
         <v>47900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>42700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>45700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>43400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>41200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>39700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>45400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>48300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>47500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>44600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>40100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>49600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>49200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>48300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>38600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>47800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>49200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>48300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>45600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E10" s="3">
         <v>27800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>27500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>29800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>22600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>25300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>22800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>21500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>23700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>24400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>23100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>24500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,19 +1184,22 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1187,62 +1207,65 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>5500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>5000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>4400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-4800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>100</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,11 +1296,11 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
         <v>200</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1291,8 +1314,8 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E17" s="3">
         <v>62300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>58200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>60500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>59000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>54600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>57800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>53400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>57800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>65500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>63300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>63800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>58600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>60100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>65500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>60300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>62800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>53700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>63600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>67100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>63500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>60400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E18" s="3">
         <v>13400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>9700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1549,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1590,82 +1624,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E21" s="3">
         <v>14400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>15500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>9000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>10600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1700,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1712,7 +1752,7 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
@@ -1727,7 +1767,7 @@
         <v>200</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
@@ -1738,156 +1778,165 @@
       <c r="Z22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E23" s="3">
         <v>13400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>9600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>2400</v>
       </c>
       <c r="S24" s="3">
         <v>2400</v>
       </c>
       <c r="T24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U24" s="3">
         <v>800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1600</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>3300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E26" s="3">
         <v>10500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6900</v>
-      </c>
-      <c r="O26" s="3">
-        <v>7000</v>
       </c>
       <c r="P26" s="3">
         <v>7000</v>
       </c>
       <c r="Q26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R26" s="3">
         <v>3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>6200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E27" s="3">
         <v>10500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6900</v>
-      </c>
-      <c r="O27" s="3">
-        <v>7000</v>
       </c>
       <c r="P27" s="3">
         <v>7000</v>
       </c>
       <c r="Q27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R27" s="3">
         <v>3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>6200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2206,11 +2267,11 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -2221,28 +2282,28 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-3500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>5800</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2471,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2478,82 +2548,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E33" s="3">
         <v>10500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>6200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E35" s="3">
         <v>10500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>6200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E38" s="2">
         <v>44652</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44470</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44379</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44288</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44197</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44099</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43917</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43826</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43644</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43553</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43462</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43371</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43280</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43189</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43098</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43007</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42734</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2921,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E41" s="3">
         <v>47800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>51100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>49500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>43200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>26000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>23700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>16200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>17100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>19700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,82 +3073,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E43" s="3">
         <v>50500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>50600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>49600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>47200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>36200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>37000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>53400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>49800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>57900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>54500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>56000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>54800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>56900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>56800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>51900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>52300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>55600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>50400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>49900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>47400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,156 +3227,165 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>114200</v>
+      </c>
+      <c r="E46" s="3">
         <v>103600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>102200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>105700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>102300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>92400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>84800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>82700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>78100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>80000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>78600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>78000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>75300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>70700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>73100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>73800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>73300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>79100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>75300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>74700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>68000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>69600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>68800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,156 +3458,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E48" s="3">
         <v>19600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>19700</v>
       </c>
       <c r="F48" s="3">
         <v>19700</v>
       </c>
       <c r="G48" s="3">
+        <v>19700</v>
+      </c>
+      <c r="H48" s="3">
         <v>19900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>24300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>22800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>20700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>14800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E49" s="3">
         <v>84600</v>
-      </c>
-      <c r="E49" s="3">
-        <v>85100</v>
       </c>
       <c r="F49" s="3">
         <v>85100</v>
       </c>
       <c r="G49" s="3">
-        <v>85400</v>
+        <v>85100</v>
       </c>
       <c r="H49" s="3">
         <v>85400</v>
       </c>
       <c r="I49" s="3">
+        <v>85400</v>
+      </c>
+      <c r="J49" s="3">
         <v>85300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>84300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>83900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>83800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>84600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>83800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>84200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>84600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>84200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>84600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>84700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>85700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>85100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>85000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>85300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>72600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>72400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3658,73 +3778,76 @@
         <v>500</v>
       </c>
       <c r="E52" s="3">
+        <v>500</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E54" s="3">
         <v>208400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>207500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>211400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>208800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>199400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>192500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>196100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>192500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>195100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>193700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>193900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>191400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>187700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>180800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>187100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>185900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>191000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>185200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>182200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>174900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>160800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>159300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>155100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,82 +4057,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
         <v>8000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>8600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4075,156 +4209,165 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E59" s="3">
         <v>39900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>50900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>41200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>36500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>40100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>37500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>30500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>35500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>30200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>36800</v>
-      </c>
-      <c r="R59" s="3">
-        <v>34100</v>
       </c>
       <c r="S59" s="3">
         <v>34100</v>
       </c>
       <c r="T59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="U59" s="3">
         <v>39800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>43000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>36000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>37100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>34200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>46700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E60" s="3">
         <v>48000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>54900</v>
       </c>
       <c r="F60" s="3">
         <v>54900</v>
       </c>
       <c r="G60" s="3">
+        <v>54900</v>
+      </c>
+      <c r="H60" s="3">
         <v>55600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>46200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>42600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>45100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>43700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>39400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>42300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>36600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>44200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>39200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>42500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>48400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>51400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>44600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>45200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>45800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>55800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4259,120 +4402,126 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>2500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13500</v>
-      </c>
-      <c r="T61" s="3">
-        <v>19000</v>
       </c>
       <c r="U61" s="3">
         <v>19000</v>
       </c>
       <c r="V61" s="3">
+        <v>19000</v>
+      </c>
+      <c r="W61" s="3">
         <v>22000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E62" s="3">
         <v>10200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>17500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>17800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>10200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E66" s="3">
         <v>58100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>56200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>51700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>57500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>54300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>55200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>57900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>57200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>58700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>64300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>75700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>78000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>84100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>83100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>64700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>73000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E72" s="3">
         <v>18300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-15200</v>
       </c>
       <c r="K72" s="3">
         <v>-15200</v>
       </c>
       <c r="L72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="M72" s="3">
         <v>-8200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-25400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-19900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-25000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-31200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-38500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-43300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-48600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-48700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-56600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-58800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>156800</v>
+      </c>
+      <c r="E76" s="3">
         <v>150300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>143900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>148500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>144400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>143200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>140900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>138600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>136600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>140800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>137600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>138700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>131200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>129700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>123600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>128400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>121600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>115400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>107300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>98100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>91800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>96000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>86300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E80" s="2">
         <v>44652</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44470</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44379</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44288</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44197</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44099</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43917</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43826</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43644</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43553</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43462</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43371</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43280</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43189</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43098</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43007</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42734</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E81" s="3">
         <v>10500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>6200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,19 +5814,20 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1100</v>
       </c>
       <c r="G83" s="3">
         <v>1100</v>
@@ -5637,19 +5836,19 @@
         <v>1100</v>
       </c>
       <c r="I83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J83" s="3">
         <v>1200</v>
       </c>
       <c r="K83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1100</v>
       </c>
       <c r="N83" s="3">
         <v>1100</v>
@@ -5658,10 +5857,10 @@
         <v>1100</v>
       </c>
       <c r="P83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>900</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>1200</v>
       </c>
       <c r="R83" s="3">
         <v>1200</v>
@@ -5676,22 +5875,25 @@
         <v>1200</v>
       </c>
       <c r="V83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="W83" s="3">
         <v>1100</v>
       </c>
       <c r="X83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y83" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>900</v>
       </c>
       <c r="Z83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E89" s="3">
         <v>6100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>17200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>10000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>12100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1000</v>
+        <v>-1300</v>
       </c>
       <c r="E91" s="3">
         <v>-1000</v>
       </c>
       <c r="F91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1000</v>
+        <v>-1300</v>
       </c>
       <c r="E94" s="3">
         <v>-1000</v>
       </c>
       <c r="F94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-10300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6495,73 +6729,76 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-6400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3300</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-6100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-5800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-5800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-5400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-4700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-4600</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-26000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6886,35 +7135,35 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>5400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>HCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,360 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44743</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44652</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44470</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44379</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44288</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44197</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43644</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43553</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43462</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43371</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43280</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43189</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43098</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43007</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42734</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E8" s="3">
         <v>75900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>75700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>70200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>71900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>73200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>63500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>59300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>57900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>52800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>69500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>69100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>72700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>73500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>67200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>63700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>73700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>74500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>71100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>60100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>71500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>73600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>71400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>70100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E9" s="3">
         <v>45900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>47900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>42700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>45700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>43400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>38900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>47100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>45400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>48300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>47500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>44600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>40100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>49600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>49200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>48300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>38600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>47800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>49200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>48300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>45600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E10" s="3">
         <v>30000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>27800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>29800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>22300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>22600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>23600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>25300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>22800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>21500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>23700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>24400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>23100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>24500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,8 +1046,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,8 +1124,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,22 +1204,25 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1210,62 +1230,65 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>5500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>5000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>4400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-1100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-4800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>100</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1299,11 +1322,11 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
         <v>200</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1317,8 +1340,8 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1341,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E17" s="3">
         <v>61700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>58200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>60500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>59000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>54600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>57800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>53400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>57800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>61800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>65500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>63300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>63800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>58600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>60100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>65500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>60300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>62800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>53700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>63600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>67100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>63500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>60400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E18" s="3">
         <v>14200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>7900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>9700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,8 +1583,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1627,85 +1661,91 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E21" s="3">
         <v>15000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>15300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>15500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>9000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>10600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1743,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1755,7 +1795,7 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
@@ -1770,7 +1810,7 @@
         <v>200</v>
       </c>
       <c r="X22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y22" s="3">
         <v>100</v>
@@ -1781,162 +1821,171 @@
       <c r="AA22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E23" s="3">
         <v>14200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>14100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>7900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>9600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>2400</v>
       </c>
       <c r="T24" s="3">
         <v>2400</v>
       </c>
       <c r="U24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1600</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>3300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E26" s="3">
         <v>10200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6900</v>
-      </c>
-      <c r="P26" s="3">
-        <v>7000</v>
       </c>
       <c r="Q26" s="3">
         <v>7000</v>
       </c>
       <c r="R26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S26" s="3">
         <v>3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>6200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E27" s="3">
         <v>10200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6900</v>
-      </c>
-      <c r="P27" s="3">
-        <v>7000</v>
       </c>
       <c r="Q27" s="3">
         <v>7000</v>
       </c>
       <c r="R27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S27" s="3">
         <v>3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>7900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>6200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2270,11 +2331,11 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -2285,28 +2346,28 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-3500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>5800</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,8 +2541,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2551,85 +2621,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E33" s="3">
         <v>10200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>9400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>7900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>6200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E35" s="3">
         <v>10200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>9400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>7900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>6200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44743</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44652</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44470</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44379</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44288</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44197</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43644</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43553</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43462</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43371</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43280</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43189</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43098</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43007</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42734</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3008,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E41" s="3">
         <v>61700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>51100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>49500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>17500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>16200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>14400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>17100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>19700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,85 +3166,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E43" s="3">
         <v>49500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>50500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>50600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>49600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>47200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>38500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>36200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>37000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>53400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>49800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>57900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>54500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>56000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>54800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>56900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>56800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>51900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>52300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>55600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>50400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>49900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>47400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3230,162 +3326,171 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E46" s="3">
         <v>114200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>103600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>102200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>105700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>102300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>92400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>84800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>82700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>78100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>80000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>78600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>78000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>75300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>70700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>73100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>73800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>73300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>79100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>75300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>74700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>68000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>69600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>68800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,162 +3566,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E48" s="3">
         <v>19700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>19700</v>
       </c>
       <c r="G48" s="3">
         <v>19700</v>
       </c>
       <c r="H48" s="3">
+        <v>19700</v>
+      </c>
+      <c r="I48" s="3">
         <v>19900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>20700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>24300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>22800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>20700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>15800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>14800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E49" s="3">
         <v>83500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>84600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>85100</v>
       </c>
       <c r="G49" s="3">
         <v>85100</v>
       </c>
       <c r="H49" s="3">
-        <v>85400</v>
+        <v>85100</v>
       </c>
       <c r="I49" s="3">
         <v>85400</v>
       </c>
       <c r="J49" s="3">
+        <v>85400</v>
+      </c>
+      <c r="K49" s="3">
         <v>85300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>84300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>83900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>83800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>84600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>83800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>84200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>84600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>84200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>84600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>84700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>85700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>85100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>85000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>85300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>72600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>72400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,85 +3886,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>500</v>
       </c>
       <c r="F52" s="3">
+        <v>500</v>
+      </c>
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4046,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>224700</v>
+      </c>
+      <c r="E54" s="3">
         <v>217900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>208400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>207500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>211400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>208800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>199400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>192500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>196100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>192500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>195100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>193700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>193900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>191400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>187700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>180800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>187100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>185900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>191000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>185200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>182200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>174900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>160800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>159300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>155100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,85 +4188,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>8400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>11700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4212,162 +4346,171 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E59" s="3">
         <v>46200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>50900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>41200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>36500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>37500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>34200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>35500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>30200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>36800</v>
-      </c>
-      <c r="S59" s="3">
-        <v>34100</v>
       </c>
       <c r="T59" s="3">
         <v>34100</v>
       </c>
       <c r="U59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="V59" s="3">
         <v>39800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>43000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>36000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>37100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>34200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>46700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E60" s="3">
         <v>51600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>48000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>54900</v>
       </c>
       <c r="G60" s="3">
         <v>54900</v>
       </c>
       <c r="H60" s="3">
+        <v>54900</v>
+      </c>
+      <c r="I60" s="3">
         <v>55600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>46200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>42600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>45100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>43700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>39400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>42300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>36600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>44200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>39200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>42500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>48400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>51400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>44600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>45200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>45800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>55800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4405,123 +4548,129 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>2500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>13500</v>
-      </c>
-      <c r="U61" s="3">
-        <v>19000</v>
       </c>
       <c r="V61" s="3">
         <v>19000</v>
       </c>
       <c r="W61" s="3">
+        <v>19000</v>
+      </c>
+      <c r="X61" s="3">
         <v>22000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>20000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E62" s="3">
         <v>9400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>17500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>17800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>10200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E66" s="3">
         <v>61100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>58100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>56200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>51700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>56100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>55200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>60200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>57900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>57200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>58700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>64300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>75700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>78000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>84100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>83100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>64700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>73000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5336,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E72" s="3">
         <v>25000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-15200</v>
       </c>
       <c r="L72" s="3">
         <v>-15200</v>
       </c>
       <c r="M72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="N72" s="3">
         <v>-8200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-25400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-19900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-25000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-31200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-38500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-43300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-48600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-48700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-56600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-58800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>164100</v>
+      </c>
+      <c r="E76" s="3">
         <v>156800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>150300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>143900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>148500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>144400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>143200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>140900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>138600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>136600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>140800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>137600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>138700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>131200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>129700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>123600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>128400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>121600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>115400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>107300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>98100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>91800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>96000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>86300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44743</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44652</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44470</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44379</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44288</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44197</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43644</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43553</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43462</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43371</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43280</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43189</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43098</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43007</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42734</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E81" s="3">
         <v>10200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>9400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>7900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>6200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6013,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5824,13 +6023,13 @@
         <v>800</v>
       </c>
       <c r="E83" s="3">
+        <v>800</v>
+      </c>
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1100</v>
       </c>
       <c r="H83" s="3">
         <v>1100</v>
@@ -5839,19 +6038,19 @@
         <v>1100</v>
       </c>
       <c r="J83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K83" s="3">
         <v>1200</v>
       </c>
       <c r="L83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M83" s="3">
         <v>1100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1100</v>
       </c>
       <c r="O83" s="3">
         <v>1100</v>
@@ -5860,10 +6059,10 @@
         <v>1100</v>
       </c>
       <c r="Q83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R83" s="3">
         <v>900</v>
-      </c>
-      <c r="R83" s="3">
-        <v>1200</v>
       </c>
       <c r="S83" s="3">
         <v>1200</v>
@@ -5878,22 +6077,25 @@
         <v>1200</v>
       </c>
       <c r="W83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="X83" s="3">
         <v>1100</v>
       </c>
       <c r="Y83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z83" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>900</v>
       </c>
       <c r="AA83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E89" s="3">
         <v>18200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>19900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>17200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>10000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>12100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6603,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1000</v>
       </c>
       <c r="F91" s="3">
         <v>-1000</v>
       </c>
       <c r="G91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +6841,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-1000</v>
       </c>
       <c r="F94" s="3">
         <v>-1000</v>
       </c>
       <c r="G94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,85 +6953,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-6400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3300</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-6100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-5800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-5800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-5400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-5400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-4700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-4600</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,85 +7271,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-26000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-6200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7138,35 +7387,35 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
@@ -7182,81 +7431,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E102" s="3">
         <v>13900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>5400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>HCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,360 +665,372 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44743</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44652</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44470</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44379</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44288</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44197</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43644</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43553</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43462</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43371</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43280</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43189</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43098</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43007</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42734</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E8" s="3">
         <v>72000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>75900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>75700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>70200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>71900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>73200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>63500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>59300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>57900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>52800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>69500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>69100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>72700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>73500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>67200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>63700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>73700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>74500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>71100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>60100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>71500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>73600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>71400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>70100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E9" s="3">
         <v>43900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>47900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>42700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>43400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>41200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>38900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>47100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>45400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>48300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>47500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>44600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>40100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>49600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>49200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>48300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>38600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>47800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>49200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>48300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>45600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E10" s="3">
         <v>28100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>30000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>27500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>26200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>29800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>22300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>22600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>23600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>25300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>22800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>21500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>23700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>24400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>23100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>24500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1127,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,25 +1223,28 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-500</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1233,62 +1252,65 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>5500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>5000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>4400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-1100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-4800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>100</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1325,11 +1347,11 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3">
         <v>200</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1343,8 +1365,8 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1367,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E17" s="3">
         <v>58000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>61700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>58200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>60500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>59000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>54600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>57800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>53400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>57800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>61800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>63300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>63800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>58600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>60100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>65500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>60300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>62800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>53700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>63600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>67100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>63500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>60400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E18" s="3">
         <v>14000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>6500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>7900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>9700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1664,93 +1697,99 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E21" s="3">
         <v>14900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>15300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>15500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>9000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>7600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>9000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>10600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1786,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1798,7 +1837,7 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
@@ -1813,7 +1852,7 @@
         <v>200</v>
       </c>
       <c r="Y22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z22" s="3">
         <v>100</v>
@@ -1824,168 +1863,177 @@
       <c r="AB22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E23" s="3">
         <v>14000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>14100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>7900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>9600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E24" s="3">
         <v>3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
-      </c>
-      <c r="T24" s="3">
-        <v>2400</v>
       </c>
       <c r="U24" s="3">
         <v>2400</v>
       </c>
       <c r="V24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W24" s="3">
         <v>800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1600</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>3300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E26" s="3">
         <v>10400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6900</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>7000</v>
       </c>
       <c r="R26" s="3">
         <v>7000</v>
       </c>
       <c r="S26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="T26" s="3">
         <v>3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>7900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>6200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E27" s="3">
         <v>10400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6900</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>7000</v>
       </c>
       <c r="R27" s="3">
         <v>7000</v>
       </c>
       <c r="S27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="T27" s="3">
         <v>3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>7900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>6200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2334,11 +2394,11 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -2349,28 +2409,28 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-3500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>5800</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2384,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2624,88 +2693,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E33" s="3">
         <v>10400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>9400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>7900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>6200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E35" s="3">
         <v>10400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>9400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>7900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>6200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44743</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44652</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44470</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44379</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44288</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44197</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43644</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43553</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43462</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43371</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43280</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43189</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43098</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43007</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42734</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E41" s="3">
         <v>67000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>61700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>47800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>51100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>23700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>17500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>16200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>14400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>17100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>19700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3169,88 +3258,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E43" s="3">
         <v>52100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>50500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>50600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>49600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>47200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>38500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>36200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>37000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>53400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>49800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>57900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>54500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>56000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>54800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>56900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>56800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>51900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>52300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>55600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>50400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>49900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>47400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3329,168 +3424,177 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E46" s="3">
         <v>122400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>114200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>103600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>102200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>105700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>102300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>92400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>84800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>82700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>78100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>80000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>78600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>78000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>75300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>70700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>73100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>73800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>73300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>79100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>75300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>74700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>68000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>69600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>68800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3569,168 +3673,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E48" s="3">
         <v>19500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>19700</v>
       </c>
       <c r="H48" s="3">
         <v>19700</v>
       </c>
       <c r="I48" s="3">
+        <v>19700</v>
+      </c>
+      <c r="J48" s="3">
         <v>19900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>20100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>28900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>24300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>22800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>20700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>15800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>14800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E49" s="3">
         <v>82500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>83500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>84600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>85100</v>
       </c>
       <c r="H49" s="3">
         <v>85100</v>
       </c>
       <c r="I49" s="3">
-        <v>85400</v>
+        <v>85100</v>
       </c>
       <c r="J49" s="3">
         <v>85400</v>
       </c>
       <c r="K49" s="3">
+        <v>85400</v>
+      </c>
+      <c r="L49" s="3">
         <v>85300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>84300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>83900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>83800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>84600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>83800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>84200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>84600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>84200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>84600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>84700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>85700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>85100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>85000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>85300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>72600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>72400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3898,79 +4017,82 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>500</v>
       </c>
       <c r="G52" s="3">
+        <v>500</v>
+      </c>
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E54" s="3">
         <v>224700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>217900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>208400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>207500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>211400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>208800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>199400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>192500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>196100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>192500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>195100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>193700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>193900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>191400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>187700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>180800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>187100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>185900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>191000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>185200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>182200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>174900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>160800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>159300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>155100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,88 +4318,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>8600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>11700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4349,173 +4482,182 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E59" s="3">
         <v>47300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>47200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>50900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>41200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>37500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>30500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>35200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>34200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>35500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>36800</v>
-      </c>
-      <c r="T59" s="3">
-        <v>34100</v>
       </c>
       <c r="U59" s="3">
         <v>34100</v>
       </c>
       <c r="V59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="W59" s="3">
         <v>39800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>43000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>36000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>37100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>34200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>46700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E60" s="3">
         <v>51900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>48000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>54900</v>
       </c>
       <c r="H60" s="3">
         <v>54900</v>
       </c>
       <c r="I60" s="3">
+        <v>54900</v>
+      </c>
+      <c r="J60" s="3">
         <v>55600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>46200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>45100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>42300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>38900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>43700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>39400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>42300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>36600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>44200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>39200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>42500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>48400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>51400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>44600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>45200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>45800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>55800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>59700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4551,126 +4693,132 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>2500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>13500</v>
-      </c>
-      <c r="V61" s="3">
-        <v>19000</v>
       </c>
       <c r="W61" s="3">
         <v>19000</v>
       </c>
       <c r="X61" s="3">
+        <v>19000</v>
+      </c>
+      <c r="Y61" s="3">
         <v>22000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>20000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E62" s="3">
         <v>8600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>17500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>17800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>10200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>126700</v>
+      </c>
+      <c r="E66" s="3">
         <v>60600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>61100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>58100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>56200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>51700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>57500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>55900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>54300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>56100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>55200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>60200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>57900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>57200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>58700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>64300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>75700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>78000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>84100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>83100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>64700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>73000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E72" s="3">
         <v>31900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>25000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-15200</v>
       </c>
       <c r="M72" s="3">
         <v>-15200</v>
       </c>
       <c r="N72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="O72" s="3">
         <v>-8200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-18300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-25400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-19900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-25000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-31200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-38500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-43300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-48600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-48700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-56600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-58800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E76" s="3">
         <v>164100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>156800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>150300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>143900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>148500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>144400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>143200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>140900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>138600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>136600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>140800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>137600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>138700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>131200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>129700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>123600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>128400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>121600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>115400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>107300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>98100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>91800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>96000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>86300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44743</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44652</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44470</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44379</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44288</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44197</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43644</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43553</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43462</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43371</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43280</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43189</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43098</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43007</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42734</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E81" s="3">
         <v>10400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>9400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>7900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>6200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6026,13 +6224,13 @@
         <v>800</v>
       </c>
       <c r="F83" s="3">
+        <v>800</v>
+      </c>
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1100</v>
       </c>
       <c r="I83" s="3">
         <v>1100</v>
@@ -6041,19 +6239,19 @@
         <v>1100</v>
       </c>
       <c r="K83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="L83" s="3">
         <v>1200</v>
       </c>
       <c r="M83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N83" s="3">
         <v>1100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1100</v>
       </c>
       <c r="P83" s="3">
         <v>1100</v>
@@ -6062,10 +6260,10 @@
         <v>1100</v>
       </c>
       <c r="R83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S83" s="3">
         <v>900</v>
-      </c>
-      <c r="S83" s="3">
-        <v>1200</v>
       </c>
       <c r="T83" s="3">
         <v>1200</v>
@@ -6080,22 +6278,25 @@
         <v>1200</v>
       </c>
       <c r="X83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="Y83" s="3">
         <v>1100</v>
       </c>
       <c r="Z83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA83" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>900</v>
       </c>
       <c r="AB83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E89" s="3">
         <v>9800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>19900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>13800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>17200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>10000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>12100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1000</v>
       </c>
       <c r="G91" s="3">
         <v>-1000</v>
       </c>
       <c r="H91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-1000</v>
       </c>
       <c r="G94" s="3">
         <v>-1000</v>
       </c>
       <c r="H94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6963,79 +7196,82 @@
         <v>-3500</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-6400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3300</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-6100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-5800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-5400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-5400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-4700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,88 +7516,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-26000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7390,35 +7638,35 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
@@ -7434,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E102" s="3">
         <v>5400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>5400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>HCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44925</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44743</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44652</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44470</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44379</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44288</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44197</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43644</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43553</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43462</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43371</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43280</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43189</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43098</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43007</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42734</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E8" s="3">
         <v>70100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>72000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>75900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>75700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>70200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>71900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>73200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>63500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>59300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>57900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>52800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>69500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>69100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>72700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>73500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>67200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>63700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>73700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>74500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>71100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>60100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>71500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>73600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>71400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>70100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E9" s="3">
         <v>40500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>45900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>47900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>42700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>45700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>43400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>38900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>47100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>45400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>48300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>47500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>44600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>40100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>49600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>49200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>48300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>38600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>47800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>49200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>48300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>45600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E10" s="3">
         <v>29600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>27800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>27500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>26200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>29800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>22600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>23600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>25300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>22800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>21500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>23700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>24400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>23100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>24500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,28 +1243,31 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1255,85 +1275,88 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>5500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>5000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>4400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-1100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-4800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>100</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1350,11 +1373,11 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3">
         <v>200</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1368,8 +1391,8 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E17" s="3">
         <v>56500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>58000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>61700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>62300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>58200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>60500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>59000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>54600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>57800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>53400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>57800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>61800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>65500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>63300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>63800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>58600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>60100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>65500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>60300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>62800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>53700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>63600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>67100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>63500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>60400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E18" s="3">
         <v>13600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>8300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>7900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>7900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>9700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1650,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1700,100 +1734,106 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E21" s="3">
         <v>14400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>15500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>9000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>7600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>9000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>10600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1828,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1840,7 +1880,7 @@
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
@@ -1855,7 +1895,7 @@
         <v>200</v>
       </c>
       <c r="Z22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA22" s="3">
         <v>100</v>
@@ -1866,174 +1906,183 @@
       <c r="AC22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E23" s="3">
         <v>13500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>14100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>8100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>7700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>6300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>7900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>9600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>3800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
-      </c>
-      <c r="U24" s="3">
-        <v>2400</v>
       </c>
       <c r="V24" s="3">
         <v>2400</v>
       </c>
       <c r="W24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X24" s="3">
         <v>800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1600</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>3300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E26" s="3">
         <v>9700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6900</v>
-      </c>
-      <c r="R26" s="3">
-        <v>7000</v>
       </c>
       <c r="S26" s="3">
         <v>7000</v>
       </c>
       <c r="T26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="U26" s="3">
         <v>3300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>7900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>6200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E27" s="3">
         <v>9700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6900</v>
-      </c>
-      <c r="R27" s="3">
-        <v>7000</v>
       </c>
       <c r="S27" s="3">
         <v>7000</v>
       </c>
       <c r="T27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="U27" s="3">
         <v>3300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>7900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>6200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,13 +2422,16 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2397,11 +2458,11 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2412,28 +2473,28 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-3500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>5800</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2680,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2696,91 +2766,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E33" s="3">
         <v>9700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>9400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>7900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>6200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E35" s="3">
         <v>9700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>9400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>7900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>6200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44925</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44743</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44652</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44470</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44379</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44288</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44197</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43644</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43553</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43462</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43371</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43280</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43189</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43098</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43007</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42734</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E41" s="3">
         <v>30300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>67000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>61700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>47800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>45800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>51100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>37400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>26000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>23700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>17500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>16200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>14400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>17100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>19700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,91 +3351,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E43" s="3">
         <v>48400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>52100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>49500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>50500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>50600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>49600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>47200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>38500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>36200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>37000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>53400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>49800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>57900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>54500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>56000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>54800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>56900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>56800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>51900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>52300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>55600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>50400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>49900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>47400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,174 +3523,183 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E46" s="3">
         <v>81200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>122400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>114200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>103600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>102200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>105700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>102300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>92400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>84800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>82700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>78100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>80000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>78600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>78000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>75300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>70700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>73100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>73800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>73300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>79100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>75300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>74700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>68000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>69600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>68800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,174 +3781,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E48" s="3">
         <v>20100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>19700</v>
       </c>
       <c r="I48" s="3">
         <v>19700</v>
       </c>
       <c r="J48" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K48" s="3">
         <v>19900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>28700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>24300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>22800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>20700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>18900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>15800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>14800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E49" s="3">
         <v>83500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>82500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>83500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>84600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>85100</v>
       </c>
       <c r="I49" s="3">
         <v>85100</v>
       </c>
       <c r="J49" s="3">
-        <v>85400</v>
+        <v>85100</v>
       </c>
       <c r="K49" s="3">
         <v>85400</v>
       </c>
       <c r="L49" s="3">
+        <v>85400</v>
+      </c>
+      <c r="M49" s="3">
         <v>85300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>84300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>83900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>83800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>84600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>83800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>84200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>84600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>84200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>84600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>84700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>85700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>85100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>85000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>85300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>72600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>72400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4020,79 +4140,82 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
       </c>
       <c r="H52" s="3">
+        <v>500</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E54" s="3">
         <v>185000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>224700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>217900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>208400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>207500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>211400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>208800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>199400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>192500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>196100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>192500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>195100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>193700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>193900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>191400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>187700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>180800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>187100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>185900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>191000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>185200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>182200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>174900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>160800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>159300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>155100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4449,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E57" s="3">
         <v>8700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>8400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>8200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>11700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>9100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,183 +4619,192 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E59" s="3">
         <v>50900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>46200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>47200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>49900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>50900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>41200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>37500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>30500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>35200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>34200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>35500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>30200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>36800</v>
-      </c>
-      <c r="U59" s="3">
-        <v>34100</v>
       </c>
       <c r="V59" s="3">
         <v>34100</v>
       </c>
       <c r="W59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="X59" s="3">
         <v>39800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>43000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>36000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>37100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>34200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>46700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E60" s="3">
         <v>59600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>48000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>54900</v>
       </c>
       <c r="I60" s="3">
         <v>54900</v>
       </c>
       <c r="J60" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K60" s="3">
         <v>55600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>42300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>38900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>43700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>39400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>42300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>36600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>44200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>39200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>42500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>48400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>51400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>44600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>45200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>45800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>55800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E61" s="3">
         <v>59700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -4696,129 +4839,135 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>2500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>13500</v>
-      </c>
-      <c r="W61" s="3">
-        <v>19000</v>
       </c>
       <c r="X61" s="3">
         <v>19000</v>
       </c>
       <c r="Y61" s="3">
+        <v>19000</v>
+      </c>
+      <c r="Z61" s="3">
         <v>22000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>20000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E62" s="3">
         <v>7500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>17500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>17800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>10200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>114200</v>
+      </c>
+      <c r="E66" s="3">
         <v>126700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>60600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>61100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>58100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>57500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>55900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>54300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>56100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>55200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>60200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>57900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>57200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>58700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>64300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>75700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>78000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>84100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>83100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>64700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>73000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E72" s="3">
         <v>38600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>31900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>25000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-15200</v>
       </c>
       <c r="N72" s="3">
         <v>-15200</v>
       </c>
       <c r="O72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="P72" s="3">
         <v>-8200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-18300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-25400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-19900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-25000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-31200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-38500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-43300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-48600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-48700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-56600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-58800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E76" s="3">
         <v>58300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>164100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>156800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>150300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>143900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>148500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>144400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>143200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>140900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>138600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>136600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>140800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>137600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>138700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>131200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>129700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>123600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>128400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>121600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>115400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>107300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>98100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>91800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>96000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>86300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44925</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44743</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44652</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44470</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44379</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44288</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44197</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43644</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43553</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43462</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43371</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43280</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43189</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43098</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43007</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42734</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E81" s="3">
         <v>9700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>9400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>7900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>6200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6227,13 +6426,13 @@
         <v>800</v>
       </c>
       <c r="G83" s="3">
+        <v>800</v>
+      </c>
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1100</v>
       </c>
       <c r="J83" s="3">
         <v>1100</v>
@@ -6242,19 +6441,19 @@
         <v>1100</v>
       </c>
       <c r="L83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M83" s="3">
         <v>1200</v>
       </c>
       <c r="N83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O83" s="3">
         <v>1100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1100</v>
       </c>
       <c r="Q83" s="3">
         <v>1100</v>
@@ -6263,10 +6462,10 @@
         <v>1100</v>
       </c>
       <c r="S83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T83" s="3">
         <v>900</v>
-      </c>
-      <c r="T83" s="3">
-        <v>1200</v>
       </c>
       <c r="U83" s="3">
         <v>1200</v>
@@ -6281,22 +6480,25 @@
         <v>1200</v>
       </c>
       <c r="Y83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="Z83" s="3">
         <v>1100</v>
       </c>
       <c r="AA83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB83" s="3">
         <v>1000</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>900</v>
       </c>
       <c r="AC83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E89" s="3">
         <v>24800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>19900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>13800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>17200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>10000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>12100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1000</v>
       </c>
       <c r="H91" s="3">
         <v>-1000</v>
       </c>
       <c r="I91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1000</v>
       </c>
       <c r="H94" s="3">
         <v>-1000</v>
       </c>
       <c r="I94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,91 +7420,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3500</v>
+        <v>-3000</v>
       </c>
       <c r="E96" s="3">
         <v>-3500</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-6400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-6100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-5800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-5800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-5400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-5400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-4700</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +7762,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-60100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-26000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-7500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-8600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7641,35 +7890,35 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
@@ -7685,87 +7934,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-36800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-10400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>5400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>HCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,398 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44925</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44743</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44652</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44470</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44379</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44288</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44197</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43644</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43553</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43462</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43371</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43280</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43189</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43098</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43007</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42734</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E8" s="3">
         <v>71200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>70100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>72000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>75900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>75700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>70200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>71900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>63500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>59300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>57900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>52800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>69500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>69100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>72700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>73500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>67200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>63700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>73700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>74500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>71100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>60100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>71500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>73600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>71400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>70100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E9" s="3">
         <v>44500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>43900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>45900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>47900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>42700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>45700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>43400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>41200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>38900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>39700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>47100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>45400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>48300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>47500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>44600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>40100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>49600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>49200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>48300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>38600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>47800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>49200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>48300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>45600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E10" s="3">
         <v>26700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>29600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>30000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>27800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>27500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>26200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>22400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>26000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>22600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>23600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>24100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>25300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>22800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>21500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>23700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>24400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>23100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>24500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,31 +1263,34 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1278,62 +1298,65 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>5500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>5000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>4400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-1100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-4800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>100</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1358,8 +1381,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1376,11 +1399,11 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="3">
         <v>200</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1394,8 +1417,8 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E17" s="3">
         <v>60000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>56500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>58000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>61700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>62300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>58200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>60500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>59000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>54600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>57800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>53400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>57800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>61800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>65500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>63300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>63800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>58600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>60100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>65500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>60300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>62800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>53700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>63600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>67100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>63500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>60400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E18" s="3">
         <v>11200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>8300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>6400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>7900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>6500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>7900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>9700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,8 +1684,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1737,94 +1771,100 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E21" s="3">
         <v>12100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>15500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>9500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>7600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>9000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>7600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>9000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>10600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1832,11 +1872,11 @@
         <v>900</v>
       </c>
       <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1871,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1883,7 +1923,7 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>200</v>
@@ -1898,7 +1938,7 @@
         <v>200</v>
       </c>
       <c r="AA22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB22" s="3">
         <v>100</v>
@@ -1909,180 +1949,189 @@
       <c r="AD22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E23" s="3">
         <v>10400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>14100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>8100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>7700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>6300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>7900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>9600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
-      </c>
-      <c r="V24" s="3">
-        <v>2400</v>
       </c>
       <c r="W24" s="3">
         <v>2400</v>
       </c>
       <c r="X24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Y24" s="3">
         <v>800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1600</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
       <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>3300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E26" s="3">
         <v>8200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6900</v>
-      </c>
-      <c r="S26" s="3">
-        <v>7000</v>
       </c>
       <c r="T26" s="3">
         <v>7000</v>
       </c>
       <c r="U26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="V26" s="3">
         <v>3300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>11700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>4800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>7900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>6200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E27" s="3">
         <v>8200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6900</v>
-      </c>
-      <c r="S27" s="3">
-        <v>7000</v>
       </c>
       <c r="T27" s="3">
         <v>7000</v>
       </c>
       <c r="U27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="V27" s="3">
         <v>3300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>11700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>4800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>7900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>6200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,16 +2483,19 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2461,11 +2522,11 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2476,28 +2537,28 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-3500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-500</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>5800</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2750,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2769,94 +2839,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E33" s="3">
         <v>8200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>11500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>9400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>5300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>7900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>6200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E35" s="3">
         <v>8200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>11500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>9400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>5300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>7900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>6200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44925</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44743</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44652</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44470</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44379</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44288</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44197</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43644</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43553</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43462</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43371</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43280</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43189</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43098</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43007</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42734</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3268,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E41" s="3">
         <v>16900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>67000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>61700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>47800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>45800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>51100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>49500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>26000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>23700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>17500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>16200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>14400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>17100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>19700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,94 +3444,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E43" s="3">
         <v>52000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>52100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>49500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>50500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>50600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>49600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>47200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>38500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>36200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>37000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>53400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>49800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>57900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>54500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>56000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>54800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>56900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>56800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>51900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>52300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>55600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>50400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>49900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>47400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,8 +3622,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3535,171 +3634,177 @@
         <v>3200</v>
       </c>
       <c r="E45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1700</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E46" s="3">
         <v>72000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>81200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>122400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>114200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>103600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>102200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>105700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>102300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>92400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>84800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>82700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>78100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>80000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>78600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>78000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>75300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>70700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>73100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>73800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>73300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>79100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>75300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>74700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>68000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>69600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>68800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,180 +3889,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E48" s="3">
         <v>21500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>19700</v>
       </c>
       <c r="J48" s="3">
         <v>19700</v>
       </c>
       <c r="K48" s="3">
+        <v>19700</v>
+      </c>
+      <c r="L48" s="3">
         <v>19900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>29400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>28900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>19800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>24300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>22800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>20700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>18900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>16500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>15800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>14800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E49" s="3">
         <v>83800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>83500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>82500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>83500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>84600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>85100</v>
       </c>
       <c r="J49" s="3">
         <v>85100</v>
       </c>
       <c r="K49" s="3">
-        <v>85400</v>
+        <v>85100</v>
       </c>
       <c r="L49" s="3">
         <v>85400</v>
       </c>
       <c r="M49" s="3">
+        <v>85400</v>
+      </c>
+      <c r="N49" s="3">
         <v>85300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>84300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>83900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>83800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>84600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>83800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>84200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>84600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>84200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>84600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>84700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>85700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>85100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>85000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>85300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>72600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>72400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,8 +4245,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4143,79 +4263,82 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>500</v>
       </c>
       <c r="I52" s="3">
+        <v>500</v>
+      </c>
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>3300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>182900</v>
+      </c>
+      <c r="E54" s="3">
         <v>177700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>185000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>224700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>217900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>208400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>207500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>211400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>208800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>199400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>192500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>196100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>192500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>195100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>193700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>193900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>191400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>187700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>180800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>187100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>185900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>191000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>185200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>182200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>174900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>160800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>159300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>155100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,94 +4580,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E57" s="3">
         <v>6900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>8600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>8200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>11700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>9100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4622,192 +4756,201 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E59" s="3">
         <v>39400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>50900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>46200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>47200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>49900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>50900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>36500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>37500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>30500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>35200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>34200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>35500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>30200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>36800</v>
-      </c>
-      <c r="V59" s="3">
-        <v>34100</v>
       </c>
       <c r="W59" s="3">
         <v>34100</v>
       </c>
       <c r="X59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="Y59" s="3">
         <v>39800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>43000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>36000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>37100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>34200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>46700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E60" s="3">
         <v>46300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>59600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>51600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>48000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>54900</v>
       </c>
       <c r="J60" s="3">
         <v>54900</v>
       </c>
       <c r="K60" s="3">
+        <v>54900</v>
+      </c>
+      <c r="L60" s="3">
         <v>55600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>42600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>45100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>42300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>38900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>43700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>39400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>42300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>36600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>44200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>39200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>42500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>48400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>51400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>44600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>45200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>45800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>55800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E61" s="3">
         <v>57700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>59700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -4842,132 +4985,138 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>2500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>11500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>13500</v>
-      </c>
-      <c r="X61" s="3">
-        <v>19000</v>
       </c>
       <c r="Y61" s="3">
         <v>19000</v>
       </c>
       <c r="Z61" s="3">
+        <v>19000</v>
+      </c>
+      <c r="AA61" s="3">
         <v>22000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>20000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>9000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>7000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E62" s="3">
         <v>10300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>17500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>17800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>10200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E66" s="3">
         <v>114200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>126700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>60600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>61100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>58100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>63700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>57500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>55900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>54300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>56100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>55200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>60200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>57900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>57200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>58700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>64300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>75700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>78000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>84100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>83100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>64700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>73000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E72" s="3">
         <v>43800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>38600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>31900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>25000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-15200</v>
       </c>
       <c r="O72" s="3">
         <v>-15200</v>
       </c>
       <c r="P72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-17100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-18300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-25400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-19900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-25000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-31200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-38500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-43300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-48600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-48700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-56600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-58800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E76" s="3">
         <v>63400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>58300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>164100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>156800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>150300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>143900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>148500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>144400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>143200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>140900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>138600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>136600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>140800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>137600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>138700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>131200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>129700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>123600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>128400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>121600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>115400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>107300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>98100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>91800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>96000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>86300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44925</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44743</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44652</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44470</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44379</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44288</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44197</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43644</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43553</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43462</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43371</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43280</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43189</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43098</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43007</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42734</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E81" s="3">
         <v>8200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>11500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>9400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>5300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>7900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>6200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6609,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6429,13 +6628,13 @@
         <v>800</v>
       </c>
       <c r="H83" s="3">
+        <v>800</v>
+      </c>
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1100</v>
       </c>
       <c r="K83" s="3">
         <v>1100</v>
@@ -6444,19 +6643,19 @@
         <v>1100</v>
       </c>
       <c r="M83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="N83" s="3">
         <v>1200</v>
       </c>
       <c r="O83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P83" s="3">
         <v>1100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>1100</v>
       </c>
       <c r="R83" s="3">
         <v>1100</v>
@@ -6465,10 +6664,10 @@
         <v>1100</v>
       </c>
       <c r="T83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U83" s="3">
         <v>900</v>
-      </c>
-      <c r="U83" s="3">
-        <v>1200</v>
       </c>
       <c r="V83" s="3">
         <v>1200</v>
@@ -6483,22 +6682,25 @@
         <v>1200</v>
       </c>
       <c r="Z83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="AA83" s="3">
         <v>1100</v>
       </c>
       <c r="AB83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC83" s="3">
         <v>1000</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>900</v>
       </c>
       <c r="AD83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>18200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>19900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>17200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>10000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>4900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>12100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7265,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7054,85 +7275,88 @@
         <v>-1100</v>
       </c>
       <c r="E91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1000</v>
       </c>
       <c r="I91" s="3">
         <v>-1000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7530,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7312,85 +7542,88 @@
         <v>-1100</v>
       </c>
       <c r="E94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-1000</v>
       </c>
       <c r="I94" s="3">
         <v>-1000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7430,85 +7664,88 @@
         <v>-3000</v>
       </c>
       <c r="E96" s="3">
-        <v>-3500</v>
+        <v>-3000</v>
       </c>
       <c r="F96" s="3">
         <v>-3500</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-6400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-6100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-5800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-5400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-5400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,94 +8008,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-60100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-26000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-7500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-6200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>3600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-5600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7893,35 +8142,35 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
@@ -7937,90 +8186,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-36800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-10400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>5400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>HCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,398 +665,411 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44925</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44743</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44652</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44470</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44379</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44288</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44197</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43644</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43553</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43462</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43371</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43280</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43189</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43098</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43007</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42734</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E8" s="3">
         <v>77100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>71200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>70100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>72000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>75900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>75700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>70200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>71900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>73200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>63500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>59300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>57900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>52800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>69500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>69100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>72700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>73500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>67200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>63700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>73700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>74500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>71100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>60100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>71500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>73600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>71400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>70100</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E9" s="3">
         <v>46900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>44500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>43900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>47900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>42700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>45700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>43400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>41200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>38900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>39700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>40700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>47100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>45400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>48300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>47500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>44600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>40100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>49600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>49200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>48300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>38600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>47800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>49200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>48300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>45600</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E10" s="3">
         <v>30200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>30000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>27800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>27500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>22400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>23700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>22600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>23600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>24100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>25300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>22800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>21500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>23700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>24400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>23100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>24500</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1088,8 +1101,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1177,8 +1191,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,34 +1283,37 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1301,62 +1321,65 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>5500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>5000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>4400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-1100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1900</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>100</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1384,8 +1407,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1402,11 +1425,11 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
         <v>200</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1420,8 +1443,8 @@
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1444,8 +1467,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,186 +1500,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E17" s="3">
         <v>64300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>60000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>56500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>58000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>61700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>62300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>58200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>60500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>59000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>54600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>57800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>53400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>57800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>61800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>65500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>63300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>63800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>58600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>60100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>65500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>60300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>62800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>53700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>63600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>67100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>63500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>60400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E18" s="3">
         <v>12800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>8200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>14200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>8300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>7900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>6500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>7900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>9700</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1685,8 +1718,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1774,112 +1808,118 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E21" s="3">
         <v>13600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>15000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>15500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>9500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>7600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>9000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>7600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>9000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>10600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E22" s="3">
         <v>900</v>
       </c>
       <c r="F22" s="3">
+        <v>900</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1914,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1926,7 +1966,7 @@
         <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>200</v>
@@ -1941,7 +1981,7 @@
         <v>200</v>
       </c>
       <c r="AB22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC22" s="3">
         <v>100</v>
@@ -1952,186 +1992,195 @@
       <c r="AE22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E23" s="3">
         <v>11900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>8100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>14100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>8100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>6200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>7700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>6300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>7900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>9600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
-      </c>
-      <c r="W24" s="3">
-        <v>2400</v>
       </c>
       <c r="X24" s="3">
         <v>2400</v>
       </c>
       <c r="Y24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Z24" s="3">
         <v>800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1600</v>
       </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
       <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
         <v>3300</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2219,186 +2268,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E26" s="3">
         <v>8700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6900</v>
-      </c>
-      <c r="T26" s="3">
-        <v>7000</v>
       </c>
       <c r="U26" s="3">
         <v>7000</v>
       </c>
       <c r="V26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="W26" s="3">
         <v>3300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>11700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>5300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>4800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>7900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>6200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E27" s="3">
         <v>8700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6900</v>
-      </c>
-      <c r="T27" s="3">
-        <v>7000</v>
       </c>
       <c r="U27" s="3">
         <v>7000</v>
       </c>
       <c r="V27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="W27" s="3">
         <v>3300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>11700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>7300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>5300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>4800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>7900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>6200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2486,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2497,8 +2558,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2525,11 +2586,11 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -2540,28 +2601,28 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-3500</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-500</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>5800</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2575,8 +2636,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,8 +2820,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2842,97 +2912,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E33" s="3">
         <v>8700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>11500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>7400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>9400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>5300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>4800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>7900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>6200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,191 +3096,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E35" s="3">
         <v>8700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>11500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>7400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>9400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>5300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>4800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>7900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>6200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44925</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44743</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44652</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44470</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44379</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44288</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44197</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43644</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43553</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43462</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43371</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43280</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43189</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43098</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43007</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42734</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,97 +3355,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E41" s="3">
         <v>15800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>67000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>61700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>47800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>45800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>52500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>51100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>49500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>26000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>23700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>17500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>16200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>14400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>17100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>19700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3447,97 +3537,103 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E43" s="3">
         <v>57800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>52000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>48400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>52100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>49500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>50500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>50600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>49600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>47200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>38500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>32800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>36200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>37000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>53400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>49800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>57900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>54500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>56000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>54800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>56900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>56800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>51900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>52300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>55600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>50400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>49900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>47400</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3625,8 +3721,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3637,174 +3736,180 @@
         <v>3200</v>
       </c>
       <c r="F45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1700</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E46" s="3">
         <v>76800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>72000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>81200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>122400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>114200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>103600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>102200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>105700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>102300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>92400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>84800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>82700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>78100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>80000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>78600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>78000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>75300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>70700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>73100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>73800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>73300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>79100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>75300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>74700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>68000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>69600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>68800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3892,186 +3997,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E48" s="3">
         <v>21700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>19700</v>
       </c>
       <c r="K48" s="3">
         <v>19700</v>
       </c>
       <c r="L48" s="3">
+        <v>19700</v>
+      </c>
+      <c r="M48" s="3">
         <v>19900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>29400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>28700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>28900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>19800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>24300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>22800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>20700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>18900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>17900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>16500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>15800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>14800</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>83700</v>
+      </c>
+      <c r="E49" s="3">
         <v>84100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>83800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>83500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>82500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>83500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>84600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>85100</v>
       </c>
       <c r="K49" s="3">
         <v>85100</v>
       </c>
       <c r="L49" s="3">
-        <v>85400</v>
+        <v>85100</v>
       </c>
       <c r="M49" s="3">
         <v>85400</v>
       </c>
       <c r="N49" s="3">
+        <v>85400</v>
+      </c>
+      <c r="O49" s="3">
         <v>85300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>84300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>83900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>83800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>84600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>83800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>84200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>84600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>84200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>84600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>84700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>85700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>85100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>85000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>85300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>72600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>72400</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,8 +4365,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4266,79 +4386,82 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
       </c>
       <c r="J52" s="3">
+        <v>500</v>
+      </c>
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>6000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>3300</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,97 +4549,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>180800</v>
+      </c>
+      <c r="E54" s="3">
         <v>182900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>177700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>185000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>224700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>217900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>208400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>207500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>211400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>208800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>199400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>192500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>196100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>192500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>195100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>193700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>193900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>191400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>187700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>180800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>187100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>185900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>191000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>185200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>182200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>174900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>160800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>159300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>155100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,97 +4711,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>8400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>8600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>8200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>11700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>9100</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4759,201 +4893,210 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E59" s="3">
         <v>41400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>50900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>47300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>39900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>47200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>50900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>36500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>40100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>37500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>30500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>35200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>34200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>35500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>30200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>36800</v>
-      </c>
-      <c r="W59" s="3">
-        <v>34100</v>
       </c>
       <c r="X59" s="3">
         <v>34100</v>
       </c>
       <c r="Y59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="Z59" s="3">
         <v>39800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>43000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>36000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>37100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>34200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>46700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E60" s="3">
         <v>46900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>46300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>59600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>51900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>51600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>48000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>54900</v>
       </c>
       <c r="K60" s="3">
         <v>54900</v>
       </c>
       <c r="L60" s="3">
+        <v>54900</v>
+      </c>
+      <c r="M60" s="3">
         <v>55600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>46200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>42600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>45100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>42300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>38900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>43700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>39400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>42300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>36600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>44200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>39200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>42500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>48400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>51400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>44600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>45200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>45800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>55800</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E61" s="3">
         <v>52700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>57700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>59700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -4988,135 +5131,141 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>2500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>11500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>13500</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>19000</v>
       </c>
       <c r="Z61" s="3">
         <v>19000</v>
       </c>
       <c r="AA61" s="3">
+        <v>19000</v>
+      </c>
+      <c r="AB61" s="3">
         <v>22000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>20000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>9000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>7000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E62" s="3">
         <v>10500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>8200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>7500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>17500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>17800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>10200</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,97 +5537,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E66" s="3">
         <v>110000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>114200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>126700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>60600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>61100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>58100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>63700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>51700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>57500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>55900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>54300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>56100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>55200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>60200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>57900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>57200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>58700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>64300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>75700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>78000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>84100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>83100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>64700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>73000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,97 +6031,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E72" s="3">
         <v>49500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>43800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>38600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>31900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>25000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-15200</v>
       </c>
       <c r="P72" s="3">
         <v>-15200</v>
       </c>
       <c r="Q72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="R72" s="3">
         <v>-8200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-17100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-18300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-25400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-19900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-25000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-31200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-38500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-43300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-48600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-48700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-56600</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-58800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,97 +6399,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E76" s="3">
         <v>72900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>63400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>58300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>164100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>156800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>150300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>143900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>148500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>144400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>143200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>140900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>138600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>136600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>140800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>137600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>138700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>131200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>129700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>123600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>128400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>121600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>115400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>107300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>98100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>91800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>96000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>86300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,191 +6583,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44925</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44743</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44652</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44470</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44379</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44288</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44197</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43644</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43553</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43462</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43371</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43280</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43189</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43098</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43007</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42734</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E81" s="3">
         <v>8700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>11500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>7400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>9400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>5300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>4800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>7900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>6200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,13 +6808,14 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E83" s="3">
         <v>800</v>
@@ -6631,13 +6830,13 @@
         <v>800</v>
       </c>
       <c r="I83" s="3">
+        <v>800</v>
+      </c>
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1100</v>
       </c>
       <c r="L83" s="3">
         <v>1100</v>
@@ -6646,19 +6845,19 @@
         <v>1100</v>
       </c>
       <c r="N83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="O83" s="3">
         <v>1200</v>
       </c>
       <c r="P83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>1100</v>
       </c>
       <c r="S83" s="3">
         <v>1100</v>
@@ -6667,10 +6866,10 @@
         <v>1100</v>
       </c>
       <c r="U83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V83" s="3">
         <v>900</v>
-      </c>
-      <c r="V83" s="3">
-        <v>1200</v>
       </c>
       <c r="W83" s="3">
         <v>1200</v>
@@ -6685,22 +6884,25 @@
         <v>1200</v>
       </c>
       <c r="AA83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="AB83" s="3">
         <v>1100</v>
       </c>
       <c r="AC83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD83" s="3">
         <v>1000</v>
-      </c>
-      <c r="AD83" s="3">
-        <v>900</v>
       </c>
       <c r="AE83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,97 +7358,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E89" s="3">
         <v>7700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>19900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>15800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>9500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>17200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>7600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>10000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>4100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>4900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>12100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,8 +7486,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7278,85 +7499,88 @@
         <v>-1100</v>
       </c>
       <c r="F91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1000</v>
       </c>
       <c r="J91" s="3">
         <v>-1000</v>
       </c>
       <c r="K91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,8 +7760,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7545,85 +7775,88 @@
         <v>-1100</v>
       </c>
       <c r="F94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1000</v>
       </c>
       <c r="J94" s="3">
         <v>-1000</v>
       </c>
       <c r="K94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-10300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,8 +7888,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7667,85 +7901,88 @@
         <v>-3000</v>
       </c>
       <c r="F96" s="3">
-        <v>-3500</v>
+        <v>-3000</v>
       </c>
       <c r="G96" s="3">
         <v>-3500</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-6400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-6100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-5800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-5800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-5400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-5400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-4600</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-4000</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
       <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,97 +8254,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-60100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-26000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-7500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-8600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-6200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>3600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-5900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-5600</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8145,35 +8394,35 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
         <v>0</v>
       </c>
@@ -8189,93 +8438,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-36800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-10400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>6200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-2700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>5400</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-1300</v>
       </c>
     </row>
